--- a/clang_libcpp/scattered erasure by key.xlsx
+++ b/clang_libcpp/scattered erasure by key.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="practice non-unique" sheetId="1" state="visible" r:id="rId1"/>
@@ -100,7 +100,7 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>Dinkumware</v>
+            <v>libc++</v>
           </tx>
           <spPr>
             <a:ln>
@@ -488,358 +488,358 @@
                 <formatCode>General</formatCode>
                 <ptCount val="118"/>
                 <pt idx="0">
-                  <v>0.769738</v>
+                  <v>78.8643</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.769957</v>
+                  <v>78.86579999999999</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.773181</v>
+                  <v>79.1901</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.774473</v>
+                  <v>79.52290000000001</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.7752599999999999</v>
+                  <v>79.5896</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.778479</v>
+                  <v>79.8954</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.7767039999999999</v>
+                  <v>79.6371</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.7783600000000001</v>
+                  <v>79.8293</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.780246</v>
+                  <v>79.9207</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.7817770000000001</v>
+                  <v>80.10809999999999</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.783817</v>
+                  <v>80.3383</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.78476</v>
+                  <v>80.6057</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.788529</v>
+                  <v>81.03740000000001</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.788659</v>
+                  <v>80.9106</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.790775</v>
+                  <v>81.262</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.791472</v>
+                  <v>81.2396</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.794242</v>
+                  <v>81.39409999999999</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.795495</v>
+                  <v>81.6045</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.797527</v>
+                  <v>81.9166</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.7982089999999999</v>
+                  <v>81.7745</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.79798</v>
+                  <v>81.86960000000001</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.798721</v>
+                  <v>81.79949999999999</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.800244</v>
+                  <v>82.0817</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.802647</v>
+                  <v>82.3938</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.802902</v>
+                  <v>82.3493</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.8043979999999999</v>
+                  <v>82.4106</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.805137</v>
+                  <v>82.4289</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.807104</v>
+                  <v>82.6867</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.807705</v>
+                  <v>82.86490000000001</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.808443</v>
+                  <v>82.9323</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.808666</v>
+                  <v>83.0305</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.8111390000000001</v>
+                  <v>83.0643</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.811468</v>
+                  <v>83.06959999999999</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.812432</v>
+                  <v>83.28870000000001</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.804845</v>
+                  <v>82.7323</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.807063</v>
+                  <v>82.84310000000001</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.808145</v>
+                  <v>82.9444</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.8087530000000001</v>
+                  <v>82.8991</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.809662</v>
+                  <v>82.96769999999999</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.811157</v>
+                  <v>83.17100000000001</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.812324</v>
+                  <v>83.10890000000001</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.812638</v>
+                  <v>83.5489</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.813026</v>
+                  <v>83.5793</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.8147489999999999</v>
+                  <v>83.649</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.815723</v>
+                  <v>84.2538</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.816792</v>
+                  <v>84.1302</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.821601</v>
+                  <v>84.8771</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.8259880000000001</v>
+                  <v>85.7449</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.8322349999999999</v>
+                  <v>85.93680000000001</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.841185</v>
+                  <v>87.80970000000001</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.857872</v>
+                  <v>89.31189999999999</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.8677</v>
+                  <v>90.6519</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.891715</v>
+                  <v>95.2197</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.896884</v>
+                  <v>97.6908</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.913478</v>
+                  <v>98.3232</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.941258</v>
+                  <v>101.095</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.957224</v>
+                  <v>103.578</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.9910369999999999</v>
+                  <v>107.735</v>
                 </pt>
                 <pt idx="58">
-                  <v>1.01839</v>
+                  <v>111.83</v>
                 </pt>
                 <pt idx="59">
-                  <v>1.05847</v>
+                  <v>116.106</v>
                 </pt>
                 <pt idx="60">
-                  <v>1.11116</v>
+                  <v>120.635</v>
                 </pt>
                 <pt idx="61">
-                  <v>1.14582</v>
+                  <v>125.835</v>
                 </pt>
                 <pt idx="62">
-                  <v>1.19409</v>
+                  <v>131.507</v>
                 </pt>
                 <pt idx="63">
-                  <v>1.28486</v>
+                  <v>141.782</v>
                 </pt>
                 <pt idx="64">
-                  <v>1.33531</v>
+                  <v>146.689</v>
                 </pt>
                 <pt idx="65">
-                  <v>1.38863</v>
+                  <v>152.63</v>
                 </pt>
                 <pt idx="66">
-                  <v>1.44282</v>
+                  <v>158.413</v>
                 </pt>
                 <pt idx="67">
-                  <v>1.479</v>
+                  <v>163.548</v>
                 </pt>
                 <pt idx="68">
-                  <v>1.52424</v>
+                  <v>169.054</v>
                 </pt>
                 <pt idx="69">
-                  <v>1.56541</v>
+                  <v>173.992</v>
                 </pt>
                 <pt idx="70">
-                  <v>1.61778</v>
+                  <v>179.077</v>
                 </pt>
                 <pt idx="71">
-                  <v>1.66473</v>
+                  <v>182.2</v>
                 </pt>
                 <pt idx="72">
-                  <v>1.69304</v>
+                  <v>186.149</v>
                 </pt>
                 <pt idx="73">
-                  <v>1.74551</v>
+                  <v>189.054</v>
                 </pt>
                 <pt idx="74">
-                  <v>1.77942</v>
+                  <v>191.882</v>
                 </pt>
                 <pt idx="75">
-                  <v>1.81526</v>
+                  <v>195.371</v>
                 </pt>
                 <pt idx="76">
-                  <v>1.85376</v>
+                  <v>199.357</v>
                 </pt>
                 <pt idx="77">
-                  <v>1.94076</v>
+                  <v>208.534</v>
                 </pt>
                 <pt idx="78">
-                  <v>1.96813</v>
+                  <v>211.719</v>
                 </pt>
                 <pt idx="79">
-                  <v>2.00234</v>
+                  <v>215.671</v>
                 </pt>
                 <pt idx="80">
-                  <v>2.02182</v>
+                  <v>219.074</v>
                 </pt>
                 <pt idx="81">
-                  <v>2.05575</v>
+                  <v>222.066</v>
                 </pt>
                 <pt idx="82">
-                  <v>2.07051</v>
+                  <v>224.669</v>
                 </pt>
                 <pt idx="83">
-                  <v>2.09035</v>
+                  <v>228.285</v>
                 </pt>
                 <pt idx="84">
-                  <v>2.11283</v>
+                  <v>230.622</v>
                 </pt>
                 <pt idx="85">
-                  <v>2.12565</v>
+                  <v>233.392</v>
                 </pt>
                 <pt idx="86">
-                  <v>2.14879</v>
+                  <v>236.796</v>
                 </pt>
                 <pt idx="87">
-                  <v>2.16617</v>
+                  <v>238.964</v>
                 </pt>
                 <pt idx="88">
-                  <v>2.17393</v>
+                  <v>241.875</v>
                 </pt>
                 <pt idx="89">
-                  <v>2.20352</v>
+                  <v>244.74</v>
                 </pt>
                 <pt idx="90">
-                  <v>2.2285</v>
+                  <v>247.492</v>
                 </pt>
                 <pt idx="91">
-                  <v>2.27376</v>
+                  <v>252.188</v>
                 </pt>
                 <pt idx="92">
-                  <v>2.29362</v>
+                  <v>254.477</v>
                 </pt>
                 <pt idx="93">
-                  <v>2.31371</v>
+                  <v>256.956</v>
                 </pt>
                 <pt idx="94">
-                  <v>2.33698</v>
+                  <v>259.273</v>
                 </pt>
                 <pt idx="95">
-                  <v>2.35403</v>
+                  <v>260.564</v>
                 </pt>
                 <pt idx="96">
-                  <v>2.37441</v>
+                  <v>263.447</v>
                 </pt>
                 <pt idx="97">
-                  <v>2.38949</v>
+                  <v>265.151</v>
                 </pt>
                 <pt idx="98">
-                  <v>2.40766</v>
+                  <v>267.055</v>
                 </pt>
                 <pt idx="99">
-                  <v>2.41876</v>
+                  <v>268.785</v>
                 </pt>
                 <pt idx="100">
-                  <v>2.43694</v>
+                  <v>270.099</v>
                 </pt>
                 <pt idx="101">
-                  <v>2.4538</v>
+                  <v>271.454</v>
                 </pt>
                 <pt idx="102">
-                  <v>2.46752</v>
+                  <v>273.596</v>
                 </pt>
                 <pt idx="103">
-                  <v>2.48632</v>
+                  <v>275.469</v>
                 </pt>
                 <pt idx="104">
-                  <v>2.50046</v>
+                  <v>277.102</v>
                 </pt>
                 <pt idx="105">
-                  <v>2.52626</v>
+                  <v>279.669</v>
                 </pt>
                 <pt idx="106">
-                  <v>2.53867</v>
+                  <v>281.186</v>
                 </pt>
                 <pt idx="107">
-                  <v>2.55145</v>
+                  <v>282.239</v>
                 </pt>
                 <pt idx="108">
-                  <v>2.56363</v>
+                  <v>284.077</v>
                 </pt>
                 <pt idx="109">
-                  <v>2.5774</v>
+                  <v>285.672</v>
                 </pt>
                 <pt idx="110">
-                  <v>2.5867</v>
+                  <v>286.915</v>
                 </pt>
                 <pt idx="111">
-                  <v>2.59958</v>
+                  <v>288.2</v>
                 </pt>
                 <pt idx="112">
-                  <v>2.60725</v>
+                  <v>289.231</v>
                 </pt>
                 <pt idx="113">
-                  <v>2.61682</v>
+                  <v>290.276</v>
                 </pt>
                 <pt idx="114">
-                  <v>2.62866</v>
+                  <v>291.468</v>
                 </pt>
                 <pt idx="115">
-                  <v>2.63918</v>
+                  <v>292.613</v>
                 </pt>
                 <pt idx="116">
-                  <v>2.64964</v>
+                  <v>293.834</v>
                 </pt>
                 <pt idx="117">
-                  <v>2.65909</v>
+                  <v>294.741</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1238,358 +1238,358 @@
                 <formatCode>General</formatCode>
                 <ptCount val="118"/>
                 <pt idx="0">
-                  <v>0.287921</v>
+                  <v>40.6819</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.288313</v>
+                  <v>40.8138</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.29341</v>
+                  <v>41.2152</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.291832</v>
+                  <v>41.3526</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.295166</v>
+                  <v>41.6534</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.299116</v>
+                  <v>42.264</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.301192</v>
+                  <v>42.2049</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.302958</v>
+                  <v>42.5089</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.303916</v>
+                  <v>42.8114</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.305827</v>
+                  <v>42.8568</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.306795</v>
+                  <v>43.0973</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.308536</v>
+                  <v>43.193</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.310773</v>
+                  <v>43.5011</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.311302</v>
+                  <v>43.5708</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.312514</v>
+                  <v>43.831</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.314971</v>
+                  <v>43.8255</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.31673</v>
+                  <v>44.0506</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.318301</v>
+                  <v>44.052</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.320026</v>
+                  <v>44.2906</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.319455</v>
+                  <v>44.2724</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.319707</v>
+                  <v>44.289</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.321352</v>
+                  <v>44.4501</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.322884</v>
+                  <v>44.9076</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.323292</v>
+                  <v>44.9679</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.323331</v>
+                  <v>44.8847</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.324405</v>
+                  <v>44.832</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.325463</v>
+                  <v>44.8754</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.325631</v>
+                  <v>44.9354</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.326593</v>
+                  <v>45.166</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.328051</v>
+                  <v>45.3326</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.3286</v>
+                  <v>45.32</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.32966</v>
+                  <v>45.326</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.33063</v>
+                  <v>45.4223</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.329116</v>
+                  <v>45.4808</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.328978</v>
+                  <v>45.5736</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.329211</v>
+                  <v>45.7932</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.331409</v>
+                  <v>45.8068</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.33112</v>
+                  <v>45.9386</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.331737</v>
+                  <v>45.9101</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.333153</v>
+                  <v>45.9694</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.335185</v>
+                  <v>46.0312</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.33411</v>
+                  <v>46.504</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.33427</v>
+                  <v>46.721</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.335575</v>
+                  <v>47.1787</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.337757</v>
+                  <v>47.3149</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.338045</v>
+                  <v>47.6159</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.344724</v>
+                  <v>48.3923</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.354684</v>
+                  <v>49.8674</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.37378</v>
+                  <v>51.8671</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.379678</v>
+                  <v>53.3049</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.40069</v>
+                  <v>55.9038</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.414533</v>
+                  <v>57.4329</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.447549</v>
+                  <v>61.7465</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.45605</v>
+                  <v>64.6071</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.47733</v>
+                  <v>67.5573</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.518232</v>
+                  <v>70.89790000000001</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.541442</v>
+                  <v>74.3472</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.585934</v>
+                  <v>79.25839999999999</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.622892</v>
+                  <v>84.3145</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.670597</v>
+                  <v>89.2071</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.730129</v>
+                  <v>94.9984</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.768621</v>
+                  <v>100.973</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.874898</v>
+                  <v>111.607</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.915596</v>
+                  <v>116.472</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.9661419999999999</v>
+                  <v>123.014</v>
                 </pt>
                 <pt idx="65">
-                  <v>1.01389</v>
+                  <v>128.738</v>
                 </pt>
                 <pt idx="66">
-                  <v>1.05577</v>
+                  <v>134.577</v>
                 </pt>
                 <pt idx="67">
-                  <v>1.09413</v>
+                  <v>139.438</v>
                 </pt>
                 <pt idx="68">
-                  <v>1.13093</v>
+                  <v>143.968</v>
                 </pt>
                 <pt idx="69">
-                  <v>1.16748</v>
+                  <v>147.778</v>
                 </pt>
                 <pt idx="70">
-                  <v>1.20735</v>
+                  <v>152.485</v>
                 </pt>
                 <pt idx="71">
-                  <v>1.23905</v>
+                  <v>154.931</v>
                 </pt>
                 <pt idx="72">
-                  <v>1.26336</v>
+                  <v>156.957</v>
                 </pt>
                 <pt idx="73">
-                  <v>1.30118</v>
+                  <v>159.976</v>
                 </pt>
                 <pt idx="74">
-                  <v>1.32507</v>
+                  <v>162.183</v>
                 </pt>
                 <pt idx="75">
-                  <v>1.35018</v>
+                  <v>164.542</v>
                 </pt>
                 <pt idx="76">
-                  <v>1.42016</v>
+                  <v>171.05</v>
                 </pt>
                 <pt idx="77">
-                  <v>1.43708</v>
+                  <v>173.466</v>
                 </pt>
                 <pt idx="78">
-                  <v>1.45535</v>
+                  <v>175.304</v>
                 </pt>
                 <pt idx="79">
-                  <v>1.4769</v>
+                  <v>177.528</v>
                 </pt>
                 <pt idx="80">
-                  <v>1.4881</v>
+                  <v>179.84</v>
                 </pt>
                 <pt idx="81">
-                  <v>1.50958</v>
+                  <v>181.08</v>
                 </pt>
                 <pt idx="82">
-                  <v>1.52838</v>
+                  <v>183.216</v>
                 </pt>
                 <pt idx="83">
-                  <v>1.54551</v>
+                  <v>184.686</v>
                 </pt>
                 <pt idx="84">
-                  <v>1.56215</v>
+                  <v>186.729</v>
                 </pt>
                 <pt idx="85">
-                  <v>1.57503</v>
+                  <v>188.609</v>
                 </pt>
                 <pt idx="86">
-                  <v>1.59176</v>
+                  <v>190.441</v>
                 </pt>
                 <pt idx="87">
-                  <v>1.60594</v>
+                  <v>192.109</v>
                 </pt>
                 <pt idx="88">
-                  <v>1.60968</v>
+                  <v>193.618</v>
                 </pt>
                 <pt idx="89">
-                  <v>1.62387</v>
+                  <v>195.484</v>
                 </pt>
                 <pt idx="90">
-                  <v>1.65195</v>
+                  <v>198.067</v>
                 </pt>
                 <pt idx="91">
-                  <v>1.65907</v>
+                  <v>199.037</v>
                 </pt>
                 <pt idx="92">
-                  <v>1.66892</v>
+                  <v>200.035</v>
                 </pt>
                 <pt idx="93">
-                  <v>1.67108</v>
+                  <v>201.263</v>
                 </pt>
                 <pt idx="94">
-                  <v>1.68102</v>
+                  <v>202.395</v>
                 </pt>
                 <pt idx="95">
-                  <v>1.69239</v>
+                  <v>203.354</v>
                 </pt>
                 <pt idx="96">
-                  <v>1.68738</v>
+                  <v>204.925</v>
                 </pt>
                 <pt idx="97">
-                  <v>1.71135</v>
+                  <v>205.864</v>
                 </pt>
                 <pt idx="98">
-                  <v>1.72353</v>
+                  <v>207.005</v>
                 </pt>
                 <pt idx="99">
-                  <v>1.72382</v>
+                  <v>207.893</v>
                 </pt>
                 <pt idx="100">
-                  <v>1.72883</v>
+                  <v>208.368</v>
                 </pt>
                 <pt idx="101">
-                  <v>1.74944</v>
+                  <v>209.622</v>
                 </pt>
                 <pt idx="102">
-                  <v>1.74777</v>
+                  <v>210.817</v>
                 </pt>
                 <pt idx="103">
-                  <v>1.77076</v>
+                  <v>211.723</v>
                 </pt>
                 <pt idx="104">
-                  <v>1.76941</v>
+                  <v>212.718</v>
                 </pt>
                 <pt idx="105">
-                  <v>1.77958</v>
+                  <v>212.284</v>
                 </pt>
                 <pt idx="106">
-                  <v>1.78747</v>
+                  <v>212.667</v>
                 </pt>
                 <pt idx="107">
-                  <v>1.78402</v>
+                  <v>213.316</v>
                 </pt>
                 <pt idx="108">
-                  <v>1.80449</v>
+                  <v>214.513</v>
                 </pt>
                 <pt idx="109">
-                  <v>1.79367</v>
+                  <v>215.442</v>
                 </pt>
                 <pt idx="110">
-                  <v>1.80985</v>
+                  <v>215.956</v>
                 </pt>
                 <pt idx="111">
-                  <v>1.79596</v>
+                  <v>216.613</v>
                 </pt>
                 <pt idx="112">
-                  <v>1.81735</v>
+                  <v>217.51</v>
                 </pt>
                 <pt idx="113">
-                  <v>1.83001</v>
+                  <v>218.121</v>
                 </pt>
                 <pt idx="114">
-                  <v>1.83281</v>
+                  <v>218.853</v>
                 </pt>
                 <pt idx="115">
-                  <v>1.84605</v>
+                  <v>219.422</v>
                 </pt>
                 <pt idx="116">
-                  <v>1.84422</v>
+                  <v>220.364</v>
                 </pt>
                 <pt idx="117">
-                  <v>1.85684</v>
+                  <v>220.944</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1988,358 +1988,358 @@
                 <formatCode>General</formatCode>
                 <ptCount val="118"/>
                 <pt idx="0">
-                  <v>0.297856</v>
+                  <v>31.2591</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.297888</v>
+                  <v>31.6562</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.30155</v>
+                  <v>31.7361</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.302911</v>
+                  <v>32.0849</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.304388</v>
+                  <v>32.2819</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.31331</v>
+                  <v>33.1432</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.315078</v>
+                  <v>33.2799</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.317522</v>
+                  <v>33.456</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.319639</v>
+                  <v>33.6824</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.321139</v>
+                  <v>33.8516</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.321239</v>
+                  <v>34.0241</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.323055</v>
+                  <v>33.9742</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.326327</v>
+                  <v>34.3777</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.32713</v>
+                  <v>34.3819</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.329469</v>
+                  <v>34.535</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.330626</v>
+                  <v>34.7021</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.333657</v>
+                  <v>34.9981</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.334483</v>
+                  <v>34.9441</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.33603</v>
+                  <v>35.2864</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.337365</v>
+                  <v>35.3893</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.337857</v>
+                  <v>35.4869</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.339528</v>
+                  <v>35.5353</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.341339</v>
+                  <v>35.7376</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.342472</v>
+                  <v>35.9314</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.342268</v>
+                  <v>35.8384</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.344115</v>
+                  <v>35.9145</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.344933</v>
+                  <v>36.1119</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.345815</v>
+                  <v>36.2242</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.346288</v>
+                  <v>36.2097</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.347367</v>
+                  <v>36.342</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.348382</v>
+                  <v>36.4249</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.349177</v>
+                  <v>36.5217</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.3503</v>
+                  <v>36.6176</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.351233</v>
+                  <v>36.5895</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.351511</v>
+                  <v>36.5801</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.352213</v>
+                  <v>36.7348</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.352966</v>
+                  <v>36.7413</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.35398</v>
+                  <v>36.9344</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.35471</v>
+                  <v>36.9915</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.356044</v>
+                  <v>36.9632</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.356748</v>
+                  <v>37.113</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.357291</v>
+                  <v>37.5103</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.357728</v>
+                  <v>37.4805</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.358232</v>
+                  <v>37.7804</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.359488</v>
+                  <v>37.8979</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.36041</v>
+                  <v>38.1874</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.366405</v>
+                  <v>38.9924</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.374885</v>
+                  <v>40.0927</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.394306</v>
+                  <v>42.2574</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.400872</v>
+                  <v>43.3021</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.416449</v>
+                  <v>45.4229</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.42512</v>
+                  <v>46.6596</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.455388</v>
+                  <v>49.0808</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.458984</v>
+                  <v>51.4721</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.474471</v>
+                  <v>54.269</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.506011</v>
+                  <v>56.9097</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.522371</v>
+                  <v>59.2178</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.553134</v>
+                  <v>63.0846</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.580135</v>
+                  <v>66.8754</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.617428</v>
+                  <v>70.39749999999999</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.6610200000000001</v>
+                  <v>74.50020000000001</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.694468</v>
+                  <v>79.12390000000001</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.790768</v>
+                  <v>90.40089999999999</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.812744</v>
+                  <v>92.1352</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.845693</v>
+                  <v>96.455</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.886482</v>
+                  <v>101.24</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.917172</v>
+                  <v>105.359</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.946173</v>
+                  <v>109.251</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.978841</v>
+                  <v>113.274</v>
                 </pt>
                 <pt idx="69">
-                  <v>1.01102</v>
+                  <v>117.024</v>
                 </pt>
                 <pt idx="70">
-                  <v>1.04245</v>
+                  <v>120.407</v>
                 </pt>
                 <pt idx="71">
-                  <v>1.0722</v>
+                  <v>123.571</v>
                 </pt>
                 <pt idx="72">
-                  <v>1.09304</v>
+                  <v>126.438</v>
                 </pt>
                 <pt idx="73">
-                  <v>1.12841</v>
+                  <v>129.496</v>
                 </pt>
                 <pt idx="74">
-                  <v>1.15416</v>
+                  <v>132.659</v>
                 </pt>
                 <pt idx="75">
-                  <v>1.17714</v>
+                  <v>135.143</v>
                 </pt>
                 <pt idx="76">
-                  <v>1.25025</v>
+                  <v>143.659</v>
                 </pt>
                 <pt idx="77">
-                  <v>1.27229</v>
+                  <v>146.34</v>
                 </pt>
                 <pt idx="78">
-                  <v>1.2954</v>
+                  <v>148.769</v>
                 </pt>
                 <pt idx="79">
-                  <v>1.31782</v>
+                  <v>151.403</v>
                 </pt>
                 <pt idx="80">
-                  <v>1.33841</v>
+                  <v>153.786</v>
                 </pt>
                 <pt idx="81">
-                  <v>1.36084</v>
+                  <v>155.174</v>
                 </pt>
                 <pt idx="82">
-                  <v>1.37799</v>
+                  <v>157.282</v>
                 </pt>
                 <pt idx="83">
-                  <v>1.39973</v>
+                  <v>158.759</v>
                 </pt>
                 <pt idx="84">
-                  <v>1.41381</v>
+                  <v>160.864</v>
                 </pt>
                 <pt idx="85">
-                  <v>1.43115</v>
+                  <v>162.513</v>
                 </pt>
                 <pt idx="86">
-                  <v>1.44896</v>
+                  <v>164.736</v>
                 </pt>
                 <pt idx="87">
-                  <v>1.46581</v>
+                  <v>166.348</v>
                 </pt>
                 <pt idx="88">
-                  <v>1.47135</v>
+                  <v>168.111</v>
                 </pt>
                 <pt idx="89">
-                  <v>1.49041</v>
+                  <v>169.86</v>
                 </pt>
                 <pt idx="90">
-                  <v>1.53644</v>
+                  <v>175.48</v>
                 </pt>
                 <pt idx="91">
-                  <v>1.55305</v>
+                  <v>177.056</v>
                 </pt>
                 <pt idx="92">
-                  <v>1.56763</v>
+                  <v>178.717</v>
                 </pt>
                 <pt idx="93">
-                  <v>1.57766</v>
+                  <v>180.087</v>
                 </pt>
                 <pt idx="94">
-                  <v>1.59527</v>
+                  <v>181.419</v>
                 </pt>
                 <pt idx="95">
-                  <v>1.60697</v>
+                  <v>182.845</v>
                 </pt>
                 <pt idx="96">
-                  <v>1.6188</v>
+                  <v>184.315</v>
                 </pt>
                 <pt idx="97">
-                  <v>1.63091</v>
+                  <v>185.462</v>
                 </pt>
                 <pt idx="98">
-                  <v>1.64298</v>
+                  <v>186.508</v>
                 </pt>
                 <pt idx="99">
-                  <v>1.65225</v>
+                  <v>187.497</v>
                 </pt>
                 <pt idx="100">
-                  <v>1.66034</v>
+                  <v>188.123</v>
                 </pt>
                 <pt idx="101">
-                  <v>1.67015</v>
+                  <v>188.899</v>
                 </pt>
                 <pt idx="102">
-                  <v>1.68076</v>
+                  <v>190.169</v>
                 </pt>
                 <pt idx="103">
-                  <v>1.69458</v>
+                  <v>191.578</v>
                 </pt>
                 <pt idx="104">
-                  <v>1.70209</v>
+                  <v>192.901</v>
                 </pt>
                 <pt idx="105">
-                  <v>1.73117</v>
+                  <v>196.066</v>
                 </pt>
                 <pt idx="106">
-                  <v>1.74193</v>
+                  <v>196.888</v>
                 </pt>
                 <pt idx="107">
-                  <v>1.74975</v>
+                  <v>197.856</v>
                 </pt>
                 <pt idx="108">
-                  <v>1.75869</v>
+                  <v>199.432</v>
                 </pt>
                 <pt idx="109">
-                  <v>1.76483</v>
+                  <v>200.126</v>
                 </pt>
                 <pt idx="110">
-                  <v>1.77254</v>
+                  <v>200.46</v>
                 </pt>
                 <pt idx="111">
-                  <v>1.7765</v>
+                  <v>201.517</v>
                 </pt>
                 <pt idx="112">
-                  <v>1.78402</v>
+                  <v>202.232</v>
                 </pt>
                 <pt idx="113">
-                  <v>1.78994</v>
+                  <v>202.876</v>
                 </pt>
                 <pt idx="114">
-                  <v>1.79783</v>
+                  <v>203.658</v>
                 </pt>
                 <pt idx="115">
-                  <v>1.80266</v>
+                  <v>204.266</v>
                 </pt>
                 <pt idx="116">
-                  <v>1.81021</v>
+                  <v>205.049</v>
                 </pt>
                 <pt idx="117">
-                  <v>1.8178</v>
+                  <v>205.774</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2490,7 +2490,7 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>Dinkumware</v>
+            <v>libc++</v>
           </tx>
           <spPr>
             <a:ln>
@@ -2878,358 +2878,358 @@
                 <formatCode>General</formatCode>
                 <ptCount val="118"/>
                 <pt idx="0">
-                  <v>0.771922</v>
+                  <v>79.6751</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.77396</v>
+                  <v>80.00790000000001</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.778486</v>
+                  <v>80.3874</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.780586</v>
+                  <v>80.637</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.784282</v>
+                  <v>81.0827</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.786119</v>
+                  <v>81.4988</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.786094</v>
+                  <v>81.35550000000001</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.791499</v>
+                  <v>82.0192</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.795512</v>
+                  <v>82.45489999999999</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.797654</v>
+                  <v>82.7484</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.7841939999999999</v>
+                  <v>81.185</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.7871359999999999</v>
+                  <v>81.58450000000001</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.78983</v>
+                  <v>81.7914</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.793241</v>
+                  <v>82.1026</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.793083</v>
+                  <v>82.2137</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.7948769999999999</v>
+                  <v>82.2796</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.798721</v>
+                  <v>82.776</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.800243</v>
+                  <v>82.7989</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.805125</v>
+                  <v>83.3835</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.806045</v>
+                  <v>83.42700000000001</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.807122</v>
+                  <v>83.4875</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.808656</v>
+                  <v>83.6832</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.81073</v>
+                  <v>83.8575</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.814746</v>
+                  <v>84.3593</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.818191</v>
+                  <v>84.67919999999999</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.808544</v>
+                  <v>83.4597</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.810791</v>
+                  <v>83.7246</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.813692</v>
+                  <v>83.9803</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.814824</v>
+                  <v>84.1006</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.816954</v>
+                  <v>84.2821</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.817433</v>
+                  <v>84.4139</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.819313</v>
+                  <v>84.5213</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.821655</v>
+                  <v>84.867</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.823105</v>
+                  <v>84.9049</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.823215</v>
+                  <v>84.9237</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.826449</v>
+                  <v>85.24720000000001</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.82978</v>
+                  <v>85.57170000000001</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.829383</v>
+                  <v>85.5544</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.833452</v>
+                  <v>85.9229</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.820342</v>
+                  <v>84.4198</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.821193</v>
+                  <v>84.5012</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.8237100000000001</v>
+                  <v>84.74720000000001</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.825004</v>
+                  <v>84.85680000000001</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.826246</v>
+                  <v>85.0029</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.827566</v>
+                  <v>85.16030000000001</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.829471</v>
+                  <v>85.46559999999999</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.832257</v>
+                  <v>86.0322</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.832179</v>
+                  <v>85.84739999999999</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.8352000000000001</v>
+                  <v>86.4699</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.843085</v>
+                  <v>87.16930000000001</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.846512</v>
+                  <v>87.93429999999999</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.86124</v>
+                  <v>88.87350000000001</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.872301</v>
+                  <v>89.8913</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.86581</v>
+                  <v>88.6748</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.873149</v>
+                  <v>90.5273</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.901502</v>
+                  <v>94.4892</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.924898</v>
+                  <v>95.461</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.950561</v>
+                  <v>99.4276</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.989665</v>
+                  <v>101.583</v>
                 </pt>
                 <pt idx="59">
-                  <v>1.01971</v>
+                  <v>103.718</v>
                 </pt>
                 <pt idx="60">
-                  <v>1.05561</v>
+                  <v>104.494</v>
                 </pt>
                 <pt idx="61">
-                  <v>1.10127</v>
+                  <v>110.612</v>
                 </pt>
                 <pt idx="62">
-                  <v>1.14045</v>
+                  <v>116.354</v>
                 </pt>
                 <pt idx="63">
-                  <v>1.18786</v>
+                  <v>122.251</v>
                 </pt>
                 <pt idx="64">
-                  <v>1.22809</v>
+                  <v>129.223</v>
                 </pt>
                 <pt idx="65">
-                  <v>1.27609</v>
+                  <v>135.055</v>
                 </pt>
                 <pt idx="66">
-                  <v>1.33542</v>
+                  <v>142.148</v>
                 </pt>
                 <pt idx="67">
-                  <v>1.36649</v>
+                  <v>147.334</v>
                 </pt>
                 <pt idx="68">
-                  <v>1.42267</v>
+                  <v>155.373</v>
                 </pt>
                 <pt idx="69">
-                  <v>1.46657</v>
+                  <v>161.249</v>
                 </pt>
                 <pt idx="70">
-                  <v>1.51615</v>
+                  <v>167.908</v>
                 </pt>
                 <pt idx="71">
-                  <v>1.56542</v>
+                  <v>172.258</v>
                 </pt>
                 <pt idx="72">
-                  <v>1.60938</v>
+                  <v>177.199</v>
                 </pt>
                 <pt idx="73">
-                  <v>1.66791</v>
+                  <v>182.464</v>
                 </pt>
                 <pt idx="74">
-                  <v>1.70781</v>
+                  <v>187.236</v>
                 </pt>
                 <pt idx="75">
-                  <v>1.75245</v>
+                  <v>191.787</v>
                 </pt>
                 <pt idx="76">
-                  <v>1.80223</v>
+                  <v>195.546</v>
                 </pt>
                 <pt idx="77">
-                  <v>1.84938</v>
+                  <v>199.947</v>
                 </pt>
                 <pt idx="78">
-                  <v>1.88961</v>
+                  <v>203.332</v>
                 </pt>
                 <pt idx="79">
-                  <v>1.93606</v>
+                  <v>208.184</v>
                 </pt>
                 <pt idx="80">
-                  <v>1.97753</v>
+                  <v>212.59</v>
                 </pt>
                 <pt idx="81">
-                  <v>2.02503</v>
+                  <v>217.282</v>
                 </pt>
                 <pt idx="82">
-                  <v>2.02482</v>
+                  <v>216.138</v>
                 </pt>
                 <pt idx="83">
-                  <v>2.06296</v>
+                  <v>220.16</v>
                 </pt>
                 <pt idx="84">
-                  <v>2.0847</v>
+                  <v>223.474</v>
                 </pt>
                 <pt idx="85">
-                  <v>2.12212</v>
+                  <v>226.904</v>
                 </pt>
                 <pt idx="86">
-                  <v>2.14345</v>
+                  <v>231.217</v>
                 </pt>
                 <pt idx="87">
-                  <v>2.16088</v>
+                  <v>234.053</v>
                 </pt>
                 <pt idx="88">
-                  <v>2.18709</v>
+                  <v>238.782</v>
                 </pt>
                 <pt idx="89">
-                  <v>2.20571</v>
+                  <v>242.154</v>
                 </pt>
                 <pt idx="90">
-                  <v>2.23143</v>
+                  <v>245.801</v>
                 </pt>
                 <pt idx="91">
-                  <v>2.26408</v>
+                  <v>249.333</v>
                 </pt>
                 <pt idx="92">
-                  <v>2.29312</v>
+                  <v>252.668</v>
                 </pt>
                 <pt idx="93">
-                  <v>2.32171</v>
+                  <v>256.353</v>
                 </pt>
                 <pt idx="94">
-                  <v>2.34534</v>
+                  <v>259.495</v>
                 </pt>
                 <pt idx="95">
-                  <v>2.3765</v>
+                  <v>262.69</v>
                 </pt>
                 <pt idx="96">
-                  <v>2.3585</v>
+                  <v>261.477</v>
                 </pt>
                 <pt idx="97">
-                  <v>2.38216</v>
+                  <v>263.985</v>
                 </pt>
                 <pt idx="98">
-                  <v>2.40297</v>
+                  <v>266.341</v>
                 </pt>
                 <pt idx="99">
-                  <v>2.42157</v>
+                  <v>268.841</v>
                 </pt>
                 <pt idx="100">
-                  <v>2.4495</v>
+                  <v>271.725</v>
                 </pt>
                 <pt idx="101">
-                  <v>2.47047</v>
+                  <v>274.313</v>
                 </pt>
                 <pt idx="102">
-                  <v>2.50016</v>
+                  <v>276.887</v>
                 </pt>
                 <pt idx="103">
-                  <v>2.5191</v>
+                  <v>279.515</v>
                 </pt>
                 <pt idx="104">
-                  <v>2.54396</v>
+                  <v>282.384</v>
                 </pt>
                 <pt idx="105">
-                  <v>2.57091</v>
+                  <v>284.878</v>
                 </pt>
                 <pt idx="106">
-                  <v>2.5922</v>
+                  <v>287.717</v>
                 </pt>
                 <pt idx="107">
-                  <v>2.61528</v>
+                  <v>289.963</v>
                 </pt>
                 <pt idx="108">
-                  <v>2.64223</v>
+                  <v>293.066</v>
                 </pt>
                 <pt idx="109">
-                  <v>2.66886</v>
+                  <v>295.541</v>
                 </pt>
                 <pt idx="110">
-                  <v>2.62174</v>
+                  <v>290.547</v>
                 </pt>
                 <pt idx="111">
-                  <v>2.63986</v>
+                  <v>292.658</v>
                 </pt>
                 <pt idx="112">
-                  <v>2.78954</v>
+                  <v>294.845</v>
                 </pt>
                 <pt idx="113">
-                  <v>2.93938</v>
+                  <v>296.759</v>
                 </pt>
                 <pt idx="114">
-                  <v>2.95804</v>
+                  <v>298.631</v>
                 </pt>
                 <pt idx="115">
-                  <v>2.97659</v>
+                  <v>300.523</v>
                 </pt>
                 <pt idx="116">
-                  <v>2.99912</v>
+                  <v>302.629</v>
                 </pt>
                 <pt idx="117">
-                  <v>3.01982</v>
+                  <v>304.484</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3628,358 +3628,358 @@
                 <formatCode>General</formatCode>
                 <ptCount val="118"/>
                 <pt idx="0">
-                  <v>0.28624</v>
+                  <v>41.496</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.291162</v>
+                  <v>41.7759</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.29512</v>
+                  <v>42.1754</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.297657</v>
+                  <v>42.642</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.303118</v>
+                  <v>42.9928</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.304105</v>
+                  <v>43.6435</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.306753</v>
+                  <v>43.9104</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.31335</v>
+                  <v>44.1831</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.317246</v>
+                  <v>44.8521</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.303786</v>
+                  <v>43.5127</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.307638</v>
+                  <v>44.2366</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.309485</v>
+                  <v>44.5323</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.313133</v>
+                  <v>44.8703</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.315564</v>
+                  <v>45.2313</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.318053</v>
+                  <v>45.2407</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.320191</v>
+                  <v>45.8505</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.325197</v>
+                  <v>45.8788</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.327923</v>
+                  <v>46.2303</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.330571</v>
+                  <v>46.3895</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.334882</v>
+                  <v>46.7706</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.337612</v>
+                  <v>47.2081</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.340063</v>
+                  <v>47.5426</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.342227</v>
+                  <v>47.9434</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.345495</v>
+                  <v>48.159</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.329313</v>
+                  <v>46.19</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.332888</v>
+                  <v>46.6927</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.334225</v>
+                  <v>46.6047</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.335665</v>
+                  <v>46.6479</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.337239</v>
+                  <v>47.11</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.340252</v>
+                  <v>47.2745</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.343039</v>
+                  <v>47.4756</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.344827</v>
+                  <v>47.9009</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.347565</v>
+                  <v>48.0067</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.349065</v>
+                  <v>48.3251</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.352756</v>
+                  <v>48.4753</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.353962</v>
+                  <v>48.7884</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.357789</v>
+                  <v>49.1232</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.360211</v>
+                  <v>49.4495</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.342256</v>
+                  <v>47.3611</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.344101</v>
+                  <v>47.488</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.34575</v>
+                  <v>47.6738</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.347209</v>
+                  <v>47.8919</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.348778</v>
+                  <v>48.1622</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.350803</v>
+                  <v>48.3453</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.35409</v>
+                  <v>48.7155</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.35592</v>
+                  <v>49.2278</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.359811</v>
+                  <v>50.0849</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.360627</v>
+                  <v>49.9149</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.364632</v>
+                  <v>50.9626</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.378758</v>
+                  <v>51.7375</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.38586</v>
+                  <v>53.4198</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.402974</v>
+                  <v>54.5921</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.384194</v>
+                  <v>52.9326</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.402796</v>
+                  <v>54.0165</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.412673</v>
+                  <v>56.2994</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.445208</v>
+                  <v>62.1249</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.472113</v>
+                  <v>63.4912</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.506547</v>
+                  <v>68.6763</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.557321</v>
+                  <v>73.93859999999999</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.59858</v>
+                  <v>75.71769999999999</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.638455</v>
+                  <v>76.8948</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.688645</v>
+                  <v>83.48180000000001</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.736359</v>
+                  <v>91.1408</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.799342</v>
+                  <v>98.7647</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.838495</v>
+                  <v>105.947</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.895167</v>
+                  <v>112.82</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.920022</v>
+                  <v>117.463</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.978097</v>
+                  <v>124.702</v>
                 </pt>
                 <pt idx="68">
-                  <v>1.021</v>
+                  <v>131.409</v>
                 </pt>
                 <pt idx="69">
-                  <v>1.06156</v>
+                  <v>137.36</v>
                 </pt>
                 <pt idx="70">
-                  <v>1.10216</v>
+                  <v>143.236</v>
                 </pt>
                 <pt idx="71">
-                  <v>1.14841</v>
+                  <v>147.302</v>
                 </pt>
                 <pt idx="72">
-                  <v>1.18588</v>
+                  <v>151.524</v>
                 </pt>
                 <pt idx="73">
-                  <v>1.22999</v>
+                  <v>156.724</v>
                 </pt>
                 <pt idx="74">
-                  <v>1.26533</v>
+                  <v>160.566</v>
                 </pt>
                 <pt idx="75">
-                  <v>1.30096</v>
+                  <v>164.496</v>
                 </pt>
                 <pt idx="76">
-                  <v>1.33771</v>
+                  <v>167.488</v>
                 </pt>
                 <pt idx="77">
-                  <v>1.3758</v>
+                  <v>171.141</v>
                 </pt>
                 <pt idx="78">
-                  <v>1.4105</v>
+                  <v>174.449</v>
                 </pt>
                 <pt idx="79">
-                  <v>1.45034</v>
+                  <v>178.146</v>
                 </pt>
                 <pt idx="80">
-                  <v>1.48146</v>
+                  <v>181.683</v>
                 </pt>
                 <pt idx="81">
-                  <v>1.47554</v>
+                  <v>179.353</v>
                 </pt>
                 <pt idx="82">
-                  <v>1.4963</v>
+                  <v>181.665</v>
                 </pt>
                 <pt idx="83">
-                  <v>1.52092</v>
+                  <v>184.95</v>
                 </pt>
                 <pt idx="84">
-                  <v>1.54246</v>
+                  <v>187.441</v>
                 </pt>
                 <pt idx="85">
-                  <v>1.56937</v>
+                  <v>190.354</v>
                 </pt>
                 <pt idx="86">
-                  <v>1.59541</v>
+                  <v>193.238</v>
                 </pt>
                 <pt idx="87">
-                  <v>1.61826</v>
+                  <v>195.792</v>
                 </pt>
                 <pt idx="88">
-                  <v>1.64082</v>
+                  <v>199.127</v>
                 </pt>
                 <pt idx="89">
-                  <v>1.66569</v>
+                  <v>202.126</v>
                 </pt>
                 <pt idx="90">
-                  <v>1.6897</v>
+                  <v>204.398</v>
                 </pt>
                 <pt idx="91">
-                  <v>1.7132</v>
+                  <v>207.396</v>
                 </pt>
                 <pt idx="92">
-                  <v>1.73947</v>
+                  <v>210.366</v>
                 </pt>
                 <pt idx="93">
-                  <v>1.76668</v>
+                  <v>213.259</v>
                 </pt>
                 <pt idx="94">
-                  <v>1.78874</v>
+                  <v>216.324</v>
                 </pt>
                 <pt idx="95">
-                  <v>1.7318</v>
+                  <v>208.844</v>
                 </pt>
                 <pt idx="96">
-                  <v>1.74548</v>
+                  <v>210.652</v>
                 </pt>
                 <pt idx="97">
-                  <v>1.7649</v>
+                  <v>212.737</v>
                 </pt>
                 <pt idx="98">
-                  <v>1.77676</v>
+                  <v>214.761</v>
                 </pt>
                 <pt idx="99">
-                  <v>1.79132</v>
+                  <v>216.635</v>
                 </pt>
                 <pt idx="100">
-                  <v>1.80548</v>
+                  <v>218.953</v>
                 </pt>
                 <pt idx="101">
-                  <v>1.82411</v>
+                  <v>221.152</v>
                 </pt>
                 <pt idx="102">
-                  <v>1.85161</v>
+                  <v>223.162</v>
                 </pt>
                 <pt idx="103">
-                  <v>1.86244</v>
+                  <v>225.439</v>
                 </pt>
                 <pt idx="104">
-                  <v>1.88039</v>
+                  <v>227.728</v>
                 </pt>
                 <pt idx="105">
-                  <v>1.90394</v>
+                  <v>230.085</v>
                 </pt>
                 <pt idx="106">
-                  <v>1.91627</v>
+                  <v>232.301</v>
                 </pt>
                 <pt idx="107">
-                  <v>1.93864</v>
+                  <v>234.697</v>
                 </pt>
                 <pt idx="108">
-                  <v>1.96928</v>
+                  <v>237.405</v>
                 </pt>
                 <pt idx="109">
-                  <v>1.87419</v>
+                  <v>224.83</v>
                 </pt>
                 <pt idx="110">
-                  <v>1.87899</v>
+                  <v>226.461</v>
                 </pt>
                 <pt idx="111">
-                  <v>1.88608</v>
+                  <v>228.154</v>
                 </pt>
                 <pt idx="112">
-                  <v>2.06283</v>
+                  <v>229.743</v>
                 </pt>
                 <pt idx="113">
-                  <v>2.08017</v>
+                  <v>231.603</v>
                 </pt>
                 <pt idx="114">
-                  <v>2.09637</v>
+                  <v>233.083</v>
                 </pt>
                 <pt idx="115">
-                  <v>2.10881</v>
+                  <v>235.024</v>
                 </pt>
                 <pt idx="116">
-                  <v>2.12834</v>
+                  <v>236.958</v>
                 </pt>
                 <pt idx="117">
-                  <v>2.14603</v>
+                  <v>238.81</v>
                 </pt>
               </numCache>
             </numRef>
@@ -4378,358 +4378,358 @@
                 <formatCode>General</formatCode>
                 <ptCount val="118"/>
                 <pt idx="0">
-                  <v>0.291499</v>
+                  <v>31.7622</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.294038</v>
+                  <v>32.05</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.298939</v>
+                  <v>32.2543</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.300085</v>
+                  <v>32.5532</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.304337</v>
+                  <v>32.7474</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.307157</v>
+                  <v>33.3087</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.308955</v>
+                  <v>33.4085</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.312908</v>
+                  <v>33.788</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.315481</v>
+                  <v>34.1565</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.31042</v>
+                  <v>33.6765</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.313474</v>
+                  <v>34.089</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.315262</v>
+                  <v>34.1587</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.317787</v>
+                  <v>34.4304</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.319857</v>
+                  <v>34.5576</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.321738</v>
+                  <v>34.8614</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.323857</v>
+                  <v>35.0249</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.326696</v>
+                  <v>35.19</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.328978</v>
+                  <v>35.4563</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.332439</v>
+                  <v>35.772</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.33488</v>
+                  <v>36.0521</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.337242</v>
+                  <v>36.2649</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.339416</v>
+                  <v>36.4379</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.343307</v>
+                  <v>36.7098</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.345821</v>
+                  <v>36.9852</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.337285</v>
+                  <v>36.1582</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.338735</v>
+                  <v>36.2385</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.341432</v>
+                  <v>36.4799</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.342745</v>
+                  <v>36.621</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.344189</v>
+                  <v>36.8114</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.345975</v>
+                  <v>36.9629</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.348088</v>
+                  <v>37.1149</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.34969</v>
+                  <v>37.2778</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.352058</v>
+                  <v>37.5107</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.353349</v>
+                  <v>37.5932</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.356143</v>
+                  <v>37.8573</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.357614</v>
+                  <v>38.0984</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.36116</v>
+                  <v>38.3147</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.361872</v>
+                  <v>38.399</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.357311</v>
+                  <v>37.8219</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.358642</v>
+                  <v>37.9579</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.35938</v>
+                  <v>38.0038</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.361502</v>
+                  <v>38.1774</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.362495</v>
+                  <v>38.2932</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.364068</v>
+                  <v>38.4266</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.366159</v>
+                  <v>38.6978</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.367514</v>
+                  <v>39.0407</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.370346</v>
+                  <v>39.4858</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.370806</v>
+                  <v>39.4449</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.3743</v>
+                  <v>40.2103</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.385934</v>
+                  <v>41.078</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.391035</v>
+                  <v>42.091</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.405569</v>
+                  <v>43.0331</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.402831</v>
+                  <v>43.0122</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.414958</v>
+                  <v>43.8652</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.422557</v>
+                  <v>46.4224</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.449647</v>
+                  <v>50.0681</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.471045</v>
+                  <v>50.6449</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.500577</v>
+                  <v>54.9285</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.539466</v>
+                  <v>57.4452</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.568909</v>
+                  <v>59.5909</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.598436</v>
+                  <v>60.193</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.6367699999999999</v>
+                  <v>65.6628</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.6742089999999999</v>
+                  <v>70.5842</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.71283</v>
+                  <v>75.9997</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.741629</v>
+                  <v>80.9759</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.780836</v>
+                  <v>85.8408</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.821832</v>
+                  <v>92.3028</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.858708</v>
+                  <v>96.9297</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.89353</v>
+                  <v>101.664</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.919551</v>
+                  <v>106.33</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.949623</v>
+                  <v>110.926</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.984828</v>
+                  <v>114.237</v>
                 </pt>
                 <pt idx="72">
-                  <v>1.01412</v>
+                  <v>117.114</v>
                 </pt>
                 <pt idx="73">
-                  <v>1.05141</v>
+                  <v>120.986</v>
                 </pt>
                 <pt idx="74">
-                  <v>1.08075</v>
+                  <v>124.472</v>
                 </pt>
                 <pt idx="75">
-                  <v>1.11006</v>
+                  <v>128.199</v>
                 </pt>
                 <pt idx="76">
-                  <v>1.14287</v>
+                  <v>131.768</v>
                 </pt>
                 <pt idx="77">
-                  <v>1.17512</v>
+                  <v>135.17</v>
                 </pt>
                 <pt idx="78">
-                  <v>1.20106</v>
+                  <v>137.946</v>
                 </pt>
                 <pt idx="79">
-                  <v>1.23148</v>
+                  <v>141.012</v>
                 </pt>
                 <pt idx="80">
-                  <v>1.2579</v>
+                  <v>144.167</v>
                 </pt>
                 <pt idx="81">
-                  <v>1.28677</v>
+                  <v>146.982</v>
                 </pt>
                 <pt idx="82">
-                  <v>1.31</v>
+                  <v>148.915</v>
                 </pt>
                 <pt idx="83">
-                  <v>1.33262</v>
+                  <v>151.681</v>
                 </pt>
                 <pt idx="84">
-                  <v>1.3537</v>
+                  <v>154.068</v>
                 </pt>
                 <pt idx="85">
-                  <v>1.37574</v>
+                  <v>156.433</v>
                 </pt>
                 <pt idx="86">
-                  <v>1.39899</v>
+                  <v>159.036</v>
                 </pt>
                 <pt idx="87">
-                  <v>1.41756</v>
+                  <v>161.127</v>
                 </pt>
                 <pt idx="88">
-                  <v>1.43957</v>
+                  <v>163.671</v>
                 </pt>
                 <pt idx="89">
-                  <v>1.46035</v>
+                  <v>165.964</v>
                 </pt>
                 <pt idx="90">
-                  <v>1.48106</v>
+                  <v>168.251</v>
                 </pt>
                 <pt idx="91">
-                  <v>1.50273</v>
+                  <v>170.588</v>
                 </pt>
                 <pt idx="92">
-                  <v>1.52191</v>
+                  <v>172.744</v>
                 </pt>
                 <pt idx="93">
-                  <v>1.54576</v>
+                  <v>175.323</v>
                 </pt>
                 <pt idx="94">
-                  <v>1.56301</v>
+                  <v>177.307</v>
                 </pt>
                 <pt idx="95">
-                  <v>1.57288</v>
+                  <v>178.633</v>
                 </pt>
                 <pt idx="96">
-                  <v>1.58678</v>
+                  <v>180.348</v>
                 </pt>
                 <pt idx="97">
-                  <v>1.60271</v>
+                  <v>181.902</v>
                 </pt>
                 <pt idx="98">
-                  <v>1.61882</v>
+                  <v>183.391</v>
                 </pt>
                 <pt idx="99">
-                  <v>1.63492</v>
+                  <v>185.191</v>
                 </pt>
                 <pt idx="100">
-                  <v>1.65297</v>
+                  <v>187.096</v>
                 </pt>
                 <pt idx="101">
-                  <v>1.66818</v>
+                  <v>188.728</v>
                 </pt>
                 <pt idx="102">
-                  <v>1.68465</v>
+                  <v>190.262</v>
                 </pt>
                 <pt idx="103">
-                  <v>1.69969</v>
+                  <v>191.882</v>
                 </pt>
                 <pt idx="104">
-                  <v>1.71416</v>
+                  <v>193.69</v>
                 </pt>
                 <pt idx="105">
-                  <v>1.73336</v>
+                  <v>195.348</v>
                 </pt>
                 <pt idx="106">
-                  <v>1.74901</v>
+                  <v>197.023</v>
                 </pt>
                 <pt idx="107">
-                  <v>1.76408</v>
+                  <v>198.873</v>
                 </pt>
                 <pt idx="108">
-                  <v>1.77872</v>
+                  <v>200.63</v>
                 </pt>
                 <pt idx="109">
-                  <v>1.76663</v>
+                  <v>199.569</v>
                 </pt>
                 <pt idx="110">
-                  <v>1.77947</v>
+                  <v>200.89</v>
                 </pt>
                 <pt idx="111">
-                  <v>1.79203</v>
+                  <v>202.044</v>
                 </pt>
                 <pt idx="112">
-                  <v>1.99458</v>
+                  <v>203.466</v>
                 </pt>
                 <pt idx="113">
-                  <v>2.00884</v>
+                  <v>204.846</v>
                 </pt>
                 <pt idx="114">
-                  <v>2.02161</v>
+                  <v>205.95</v>
                 </pt>
                 <pt idx="115">
-                  <v>2.03118</v>
+                  <v>207.454</v>
                 </pt>
                 <pt idx="116">
-                  <v>2.04754</v>
+                  <v>208.688</v>
                 </pt>
                 <pt idx="117">
-                  <v>2.05662</v>
+                  <v>209.883</v>
                 </pt>
               </numCache>
             </numRef>
@@ -5213,7 +5213,7 @@
   </sheetPr>
   <dimension ref="A1:D119"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -6905,8 +6905,8 @@
   </sheetPr>
   <dimension ref="A1:D119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/clang_libcpp/scattered erasure by key.xlsx
+++ b/clang_libcpp/scattered erasure by key.xlsx
@@ -5244,13 +5244,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>78.8643</v>
+        <v>79.1323</v>
       </c>
       <c r="C2" t="n">
-        <v>40.6819</v>
+        <v>41.4839</v>
       </c>
       <c r="D2" t="n">
-        <v>31.2591</v>
+        <v>31.893</v>
       </c>
     </row>
     <row r="3">
@@ -5258,13 +5258,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>78.86579999999999</v>
+        <v>79.4281</v>
       </c>
       <c r="C3" t="n">
-        <v>40.8138</v>
+        <v>41.86</v>
       </c>
       <c r="D3" t="n">
-        <v>31.6562</v>
+        <v>32.0777</v>
       </c>
     </row>
     <row r="4">
@@ -5272,13 +5272,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>79.1901</v>
+        <v>79.6131</v>
       </c>
       <c r="C4" t="n">
-        <v>41.2152</v>
+        <v>42.1436</v>
       </c>
       <c r="D4" t="n">
-        <v>31.7361</v>
+        <v>32.393</v>
       </c>
     </row>
     <row r="5">
@@ -5286,13 +5286,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>79.52290000000001</v>
+        <v>79.8815</v>
       </c>
       <c r="C5" t="n">
-        <v>41.3526</v>
+        <v>42.258</v>
       </c>
       <c r="D5" t="n">
-        <v>32.0849</v>
+        <v>32.5337</v>
       </c>
     </row>
     <row r="6">
@@ -5300,13 +5300,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>79.5896</v>
+        <v>79.9075</v>
       </c>
       <c r="C6" t="n">
-        <v>41.6534</v>
+        <v>42.5869</v>
       </c>
       <c r="D6" t="n">
-        <v>32.2819</v>
+        <v>32.4929</v>
       </c>
     </row>
     <row r="7">
@@ -5314,13 +5314,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>79.8954</v>
+        <v>80.30800000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>42.264</v>
+        <v>42.8994</v>
       </c>
       <c r="D7" t="n">
-        <v>33.1432</v>
+        <v>33.355</v>
       </c>
     </row>
     <row r="8">
@@ -5328,13 +5328,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>79.6371</v>
+        <v>79.7696</v>
       </c>
       <c r="C8" t="n">
-        <v>42.2049</v>
+        <v>42.9769</v>
       </c>
       <c r="D8" t="n">
-        <v>33.2799</v>
+        <v>33.4806</v>
       </c>
     </row>
     <row r="9">
@@ -5342,13 +5342,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>79.8293</v>
+        <v>80.2332</v>
       </c>
       <c r="C9" t="n">
-        <v>42.5089</v>
+        <v>43.161</v>
       </c>
       <c r="D9" t="n">
-        <v>33.456</v>
+        <v>33.6316</v>
       </c>
     </row>
     <row r="10">
@@ -5356,13 +5356,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>79.9207</v>
+        <v>80.26430000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>42.8114</v>
+        <v>43.4047</v>
       </c>
       <c r="D10" t="n">
-        <v>33.6824</v>
+        <v>33.9367</v>
       </c>
     </row>
     <row r="11">
@@ -5370,13 +5370,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>80.10809999999999</v>
+        <v>80.4543</v>
       </c>
       <c r="C11" t="n">
-        <v>42.8568</v>
+        <v>43.6205</v>
       </c>
       <c r="D11" t="n">
-        <v>33.8516</v>
+        <v>34.1443</v>
       </c>
     </row>
     <row r="12">
@@ -5384,13 +5384,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>80.3383</v>
+        <v>80.6825</v>
       </c>
       <c r="C12" t="n">
-        <v>43.0973</v>
+        <v>43.65</v>
       </c>
       <c r="D12" t="n">
-        <v>34.0241</v>
+        <v>34.0639</v>
       </c>
     </row>
     <row r="13">
@@ -5398,13 +5398,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>80.6057</v>
+        <v>80.8827</v>
       </c>
       <c r="C13" t="n">
-        <v>43.193</v>
+        <v>43.85</v>
       </c>
       <c r="D13" t="n">
-        <v>33.9742</v>
+        <v>34.3227</v>
       </c>
     </row>
     <row r="14">
@@ -5412,13 +5412,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>81.03740000000001</v>
+        <v>81.10039999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>43.5011</v>
+        <v>44.0432</v>
       </c>
       <c r="D14" t="n">
-        <v>34.3777</v>
+        <v>34.5501</v>
       </c>
     </row>
     <row r="15">
@@ -5426,13 +5426,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>80.9106</v>
+        <v>81.2242</v>
       </c>
       <c r="C15" t="n">
-        <v>43.5708</v>
+        <v>44.1841</v>
       </c>
       <c r="D15" t="n">
-        <v>34.3819</v>
+        <v>34.748</v>
       </c>
     </row>
     <row r="16">
@@ -5440,13 +5440,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>81.262</v>
+        <v>81.42489999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>43.831</v>
+        <v>44.3415</v>
       </c>
       <c r="D16" t="n">
-        <v>34.535</v>
+        <v>34.8298</v>
       </c>
     </row>
     <row r="17">
@@ -5454,13 +5454,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>81.2396</v>
+        <v>81.48520000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>43.8255</v>
+        <v>44.533</v>
       </c>
       <c r="D17" t="n">
-        <v>34.7021</v>
+        <v>34.8331</v>
       </c>
     </row>
     <row r="18">
@@ -5468,13 +5468,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>81.39409999999999</v>
+        <v>81.69710000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>44.0506</v>
+        <v>44.6051</v>
       </c>
       <c r="D18" t="n">
-        <v>34.9981</v>
+        <v>35.141</v>
       </c>
     </row>
     <row r="19">
@@ -5482,13 +5482,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>81.6045</v>
+        <v>81.78149999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>44.052</v>
+        <v>44.6575</v>
       </c>
       <c r="D19" t="n">
-        <v>34.9441</v>
+        <v>35.1218</v>
       </c>
     </row>
     <row r="20">
@@ -5496,13 +5496,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>81.9166</v>
+        <v>82.0421</v>
       </c>
       <c r="C20" t="n">
-        <v>44.2906</v>
+        <v>44.9526</v>
       </c>
       <c r="D20" t="n">
-        <v>35.2864</v>
+        <v>35.384</v>
       </c>
     </row>
     <row r="21">
@@ -5510,13 +5510,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>81.7745</v>
+        <v>82.1506</v>
       </c>
       <c r="C21" t="n">
-        <v>44.2724</v>
+        <v>44.7274</v>
       </c>
       <c r="D21" t="n">
-        <v>35.3893</v>
+        <v>35.3952</v>
       </c>
     </row>
     <row r="22">
@@ -5524,13 +5524,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>81.86960000000001</v>
+        <v>82.14060000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>44.289</v>
+        <v>44.8723</v>
       </c>
       <c r="D22" t="n">
-        <v>35.4869</v>
+        <v>35.562</v>
       </c>
     </row>
     <row r="23">
@@ -5538,13 +5538,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>81.79949999999999</v>
+        <v>82.1674</v>
       </c>
       <c r="C23" t="n">
-        <v>44.4501</v>
+        <v>44.9447</v>
       </c>
       <c r="D23" t="n">
-        <v>35.5353</v>
+        <v>35.6241</v>
       </c>
     </row>
     <row r="24">
@@ -5552,13 +5552,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>82.0817</v>
+        <v>82.3348</v>
       </c>
       <c r="C24" t="n">
-        <v>44.9076</v>
+        <v>45.1773</v>
       </c>
       <c r="D24" t="n">
-        <v>35.7376</v>
+        <v>35.8699</v>
       </c>
     </row>
     <row r="25">
@@ -5566,13 +5566,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>82.3938</v>
+        <v>82.5354</v>
       </c>
       <c r="C25" t="n">
-        <v>44.9679</v>
+        <v>45.2061</v>
       </c>
       <c r="D25" t="n">
-        <v>35.9314</v>
+        <v>35.9584</v>
       </c>
     </row>
     <row r="26">
@@ -5580,13 +5580,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>82.3493</v>
+        <v>82.6159</v>
       </c>
       <c r="C26" t="n">
-        <v>44.8847</v>
+        <v>45.2498</v>
       </c>
       <c r="D26" t="n">
-        <v>35.8384</v>
+        <v>35.9949</v>
       </c>
     </row>
     <row r="27">
@@ -5594,13 +5594,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>82.4106</v>
+        <v>82.74339999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>44.832</v>
+        <v>45.3512</v>
       </c>
       <c r="D27" t="n">
-        <v>35.9145</v>
+        <v>36.1067</v>
       </c>
     </row>
     <row r="28">
@@ -5608,13 +5608,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>82.4289</v>
+        <v>82.6992</v>
       </c>
       <c r="C28" t="n">
-        <v>44.8754</v>
+        <v>45.3973</v>
       </c>
       <c r="D28" t="n">
-        <v>36.1119</v>
+        <v>36.1394</v>
       </c>
     </row>
     <row r="29">
@@ -5622,13 +5622,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>82.6867</v>
+        <v>82.90600000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>44.9354</v>
+        <v>45.3709</v>
       </c>
       <c r="D29" t="n">
-        <v>36.2242</v>
+        <v>36.2568</v>
       </c>
     </row>
     <row r="30">
@@ -5636,13 +5636,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>82.86490000000001</v>
+        <v>82.8454</v>
       </c>
       <c r="C30" t="n">
-        <v>45.166</v>
+        <v>45.5727</v>
       </c>
       <c r="D30" t="n">
-        <v>36.2097</v>
+        <v>36.2368</v>
       </c>
     </row>
     <row r="31">
@@ -5650,13 +5650,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>82.9323</v>
+        <v>82.97750000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>45.3326</v>
+        <v>45.7031</v>
       </c>
       <c r="D31" t="n">
-        <v>36.342</v>
+        <v>36.3499</v>
       </c>
     </row>
     <row r="32">
@@ -5664,13 +5664,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>83.0305</v>
+        <v>83.0104</v>
       </c>
       <c r="C32" t="n">
-        <v>45.32</v>
+        <v>45.7085</v>
       </c>
       <c r="D32" t="n">
-        <v>36.4249</v>
+        <v>36.4617</v>
       </c>
     </row>
     <row r="33">
@@ -5678,13 +5678,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>83.0643</v>
+        <v>83.32680000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>45.326</v>
+        <v>45.752</v>
       </c>
       <c r="D33" t="n">
-        <v>36.5217</v>
+        <v>36.4494</v>
       </c>
     </row>
     <row r="34">
@@ -5692,13 +5692,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>83.06959999999999</v>
+        <v>83.2</v>
       </c>
       <c r="C34" t="n">
-        <v>45.4223</v>
+        <v>45.9382</v>
       </c>
       <c r="D34" t="n">
-        <v>36.6176</v>
+        <v>36.6172</v>
       </c>
     </row>
     <row r="35">
@@ -5706,13 +5706,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>83.28870000000001</v>
+        <v>83.35509999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>45.4808</v>
+        <v>45.6792</v>
       </c>
       <c r="D35" t="n">
-        <v>36.5895</v>
+        <v>36.6276</v>
       </c>
     </row>
     <row r="36">
@@ -5720,13 +5720,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>82.7323</v>
+        <v>82.7581</v>
       </c>
       <c r="C36" t="n">
-        <v>45.5736</v>
+        <v>45.7442</v>
       </c>
       <c r="D36" t="n">
-        <v>36.5801</v>
+        <v>36.6236</v>
       </c>
     </row>
     <row r="37">
@@ -5734,13 +5734,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>82.84310000000001</v>
+        <v>83.006</v>
       </c>
       <c r="C37" t="n">
-        <v>45.7932</v>
+        <v>45.9769</v>
       </c>
       <c r="D37" t="n">
-        <v>36.7348</v>
+        <v>36.6502</v>
       </c>
     </row>
     <row r="38">
@@ -5748,13 +5748,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>82.9444</v>
+        <v>83.1035</v>
       </c>
       <c r="C38" t="n">
-        <v>45.8068</v>
+        <v>46.0571</v>
       </c>
       <c r="D38" t="n">
-        <v>36.7413</v>
+        <v>36.8599</v>
       </c>
     </row>
     <row r="39">
@@ -5762,13 +5762,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>82.8991</v>
+        <v>82.96559999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>45.9386</v>
+        <v>46.0207</v>
       </c>
       <c r="D39" t="n">
-        <v>36.9344</v>
+        <v>36.8753</v>
       </c>
     </row>
     <row r="40">
@@ -5776,13 +5776,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>82.96769999999999</v>
+        <v>82.94889999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>45.9101</v>
+        <v>45.9315</v>
       </c>
       <c r="D40" t="n">
-        <v>36.9915</v>
+        <v>37.0085</v>
       </c>
     </row>
     <row r="41">
@@ -5790,13 +5790,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>83.17100000000001</v>
+        <v>83.2141</v>
       </c>
       <c r="C41" t="n">
-        <v>45.9694</v>
+        <v>46.0426</v>
       </c>
       <c r="D41" t="n">
-        <v>36.9632</v>
+        <v>37.007</v>
       </c>
     </row>
     <row r="42">
@@ -5804,13 +5804,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>83.10890000000001</v>
+        <v>83.1571</v>
       </c>
       <c r="C42" t="n">
-        <v>46.0312</v>
+        <v>46.1438</v>
       </c>
       <c r="D42" t="n">
-        <v>37.113</v>
+        <v>37.0105</v>
       </c>
     </row>
     <row r="43">
@@ -5818,13 +5818,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>83.5489</v>
+        <v>83.55670000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>46.504</v>
+        <v>46.3965</v>
       </c>
       <c r="D43" t="n">
-        <v>37.5103</v>
+        <v>37.1165</v>
       </c>
     </row>
     <row r="44">
@@ -5832,13 +5832,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>83.5793</v>
+        <v>83.4319</v>
       </c>
       <c r="C44" t="n">
-        <v>46.721</v>
+        <v>46.4313</v>
       </c>
       <c r="D44" t="n">
-        <v>37.4805</v>
+        <v>37.1298</v>
       </c>
     </row>
     <row r="45">
@@ -5846,13 +5846,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>83.649</v>
+        <v>84.0205</v>
       </c>
       <c r="C45" t="n">
-        <v>47.1787</v>
+        <v>46.9601</v>
       </c>
       <c r="D45" t="n">
-        <v>37.7804</v>
+        <v>37.4041</v>
       </c>
     </row>
     <row r="46">
@@ -5860,13 +5860,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>84.2538</v>
+        <v>83.95610000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>47.3149</v>
+        <v>46.9277</v>
       </c>
       <c r="D46" t="n">
-        <v>37.8979</v>
+        <v>37.5325</v>
       </c>
     </row>
     <row r="47">
@@ -5874,13 +5874,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>84.1302</v>
+        <v>84.6229</v>
       </c>
       <c r="C47" t="n">
-        <v>47.6159</v>
+        <v>48.2106</v>
       </c>
       <c r="D47" t="n">
-        <v>38.1874</v>
+        <v>38.551</v>
       </c>
     </row>
     <row r="48">
@@ -5888,13 +5888,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>84.8771</v>
+        <v>85.7029</v>
       </c>
       <c r="C48" t="n">
-        <v>48.3923</v>
+        <v>49.4016</v>
       </c>
       <c r="D48" t="n">
-        <v>38.9924</v>
+        <v>39.5328</v>
       </c>
     </row>
     <row r="49">
@@ -5902,13 +5902,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>85.7449</v>
+        <v>86.661</v>
       </c>
       <c r="C49" t="n">
-        <v>49.8674</v>
+        <v>51.0021</v>
       </c>
       <c r="D49" t="n">
-        <v>40.0927</v>
+        <v>40.9388</v>
       </c>
     </row>
     <row r="50">
@@ -5916,13 +5916,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>85.93680000000001</v>
+        <v>86.63939999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>51.8671</v>
+        <v>52.8392</v>
       </c>
       <c r="D50" t="n">
-        <v>42.2574</v>
+        <v>43.1621</v>
       </c>
     </row>
     <row r="51">
@@ -5930,13 +5930,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>87.80970000000001</v>
+        <v>88.7175</v>
       </c>
       <c r="C51" t="n">
-        <v>53.3049</v>
+        <v>53.9714</v>
       </c>
       <c r="D51" t="n">
-        <v>43.3021</v>
+        <v>44.1208</v>
       </c>
     </row>
     <row r="52">
@@ -5944,13 +5944,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>89.31189999999999</v>
+        <v>90.0694</v>
       </c>
       <c r="C52" t="n">
-        <v>55.9038</v>
+        <v>56.3908</v>
       </c>
       <c r="D52" t="n">
-        <v>45.4229</v>
+        <v>46.0089</v>
       </c>
     </row>
     <row r="53">
@@ -5958,13 +5958,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>90.6519</v>
+        <v>92.1065</v>
       </c>
       <c r="C53" t="n">
-        <v>57.4329</v>
+        <v>59.0005</v>
       </c>
       <c r="D53" t="n">
-        <v>46.6596</v>
+        <v>48.1507</v>
       </c>
     </row>
     <row r="54">
@@ -5972,13 +5972,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>95.2197</v>
+        <v>95.2033</v>
       </c>
       <c r="C54" t="n">
-        <v>61.7465</v>
+        <v>62.499</v>
       </c>
       <c r="D54" t="n">
-        <v>49.0808</v>
+        <v>50.1018</v>
       </c>
     </row>
     <row r="55">
@@ -5986,13 +5986,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>97.6908</v>
+        <v>96.422</v>
       </c>
       <c r="C55" t="n">
-        <v>64.6071</v>
+        <v>64.599</v>
       </c>
       <c r="D55" t="n">
-        <v>51.4721</v>
+        <v>52.0409</v>
       </c>
     </row>
     <row r="56">
@@ -6000,13 +6000,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>98.3232</v>
+        <v>98.9911</v>
       </c>
       <c r="C56" t="n">
-        <v>67.5573</v>
+        <v>68.11190000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>54.269</v>
+        <v>54.5195</v>
       </c>
     </row>
     <row r="57">
@@ -6014,13 +6014,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>101.095</v>
+        <v>102.696</v>
       </c>
       <c r="C57" t="n">
-        <v>70.89790000000001</v>
+        <v>72.84480000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>56.9097</v>
+        <v>57.6365</v>
       </c>
     </row>
     <row r="58">
@@ -6028,13 +6028,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>103.578</v>
+        <v>105.078</v>
       </c>
       <c r="C58" t="n">
-        <v>74.3472</v>
+        <v>75.46939999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>59.2178</v>
+        <v>60.032</v>
       </c>
     </row>
     <row r="59">
@@ -6042,13 +6042,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>107.735</v>
+        <v>108.799</v>
       </c>
       <c r="C59" t="n">
-        <v>79.25839999999999</v>
+        <v>80.1174</v>
       </c>
       <c r="D59" t="n">
-        <v>63.0846</v>
+        <v>63.2281</v>
       </c>
     </row>
     <row r="60">
@@ -6056,13 +6056,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>111.83</v>
+        <v>111.887</v>
       </c>
       <c r="C60" t="n">
-        <v>84.3145</v>
+        <v>84.30370000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>66.8754</v>
+        <v>66.25060000000001</v>
       </c>
     </row>
     <row r="61">
@@ -6070,13 +6070,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>116.106</v>
+        <v>116.176</v>
       </c>
       <c r="C61" t="n">
-        <v>89.2071</v>
+        <v>89.3379</v>
       </c>
       <c r="D61" t="n">
-        <v>70.39749999999999</v>
+        <v>69.97110000000001</v>
       </c>
     </row>
     <row r="62">
@@ -6084,13 +6084,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>120.635</v>
+        <v>121.326</v>
       </c>
       <c r="C62" t="n">
-        <v>94.9984</v>
+        <v>93.9182</v>
       </c>
       <c r="D62" t="n">
-        <v>74.50020000000001</v>
+        <v>73.34480000000001</v>
       </c>
     </row>
     <row r="63">
@@ -6098,13 +6098,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>125.835</v>
+        <v>125.969</v>
       </c>
       <c r="C63" t="n">
-        <v>100.973</v>
+        <v>99.0314</v>
       </c>
       <c r="D63" t="n">
-        <v>79.12390000000001</v>
+        <v>77.3449</v>
       </c>
     </row>
     <row r="64">
@@ -6112,13 +6112,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>131.507</v>
+        <v>129.058</v>
       </c>
       <c r="C64" t="n">
-        <v>111.607</v>
+        <v>109.04</v>
       </c>
       <c r="D64" t="n">
-        <v>90.40089999999999</v>
+        <v>87.5604</v>
       </c>
     </row>
     <row r="65">
@@ -6126,13 +6126,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>141.782</v>
+        <v>139.398</v>
       </c>
       <c r="C65" t="n">
-        <v>116.472</v>
+        <v>114.172</v>
       </c>
       <c r="D65" t="n">
-        <v>92.1352</v>
+        <v>90.2975</v>
       </c>
     </row>
     <row r="66">
@@ -6140,13 +6140,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>146.689</v>
+        <v>145.176</v>
       </c>
       <c r="C66" t="n">
-        <v>123.014</v>
+        <v>120.688</v>
       </c>
       <c r="D66" t="n">
-        <v>96.455</v>
+        <v>94.1268</v>
       </c>
     </row>
     <row r="67">
@@ -6154,13 +6154,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>152.63</v>
+        <v>151.942</v>
       </c>
       <c r="C67" t="n">
-        <v>128.738</v>
+        <v>127.107</v>
       </c>
       <c r="D67" t="n">
-        <v>101.24</v>
+        <v>98.79040000000001</v>
       </c>
     </row>
     <row r="68">
@@ -6168,13 +6168,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>158.413</v>
+        <v>157.378</v>
       </c>
       <c r="C68" t="n">
-        <v>134.577</v>
+        <v>132.238</v>
       </c>
       <c r="D68" t="n">
-        <v>105.359</v>
+        <v>102.73</v>
       </c>
     </row>
     <row r="69">
@@ -6182,13 +6182,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>163.548</v>
+        <v>162.546</v>
       </c>
       <c r="C69" t="n">
-        <v>139.438</v>
+        <v>137.149</v>
       </c>
       <c r="D69" t="n">
-        <v>109.251</v>
+        <v>106.358</v>
       </c>
     </row>
     <row r="70">
@@ -6196,13 +6196,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>169.054</v>
+        <v>167.831</v>
       </c>
       <c r="C70" t="n">
-        <v>143.968</v>
+        <v>141.545</v>
       </c>
       <c r="D70" t="n">
-        <v>113.274</v>
+        <v>109.256</v>
       </c>
     </row>
     <row r="71">
@@ -6210,13 +6210,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>173.992</v>
+        <v>172.223</v>
       </c>
       <c r="C71" t="n">
-        <v>147.778</v>
+        <v>145.943</v>
       </c>
       <c r="D71" t="n">
-        <v>117.024</v>
+        <v>113.082</v>
       </c>
     </row>
     <row r="72">
@@ -6224,13 +6224,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>179.077</v>
+        <v>176.996</v>
       </c>
       <c r="C72" t="n">
-        <v>152.485</v>
+        <v>150.274</v>
       </c>
       <c r="D72" t="n">
-        <v>120.407</v>
+        <v>116.763</v>
       </c>
     </row>
     <row r="73">
@@ -6238,13 +6238,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>182.2</v>
+        <v>181.342</v>
       </c>
       <c r="C73" t="n">
-        <v>154.931</v>
+        <v>153.845</v>
       </c>
       <c r="D73" t="n">
-        <v>123.571</v>
+        <v>120.205</v>
       </c>
     </row>
     <row r="74">
@@ -6252,13 +6252,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>186.149</v>
+        <v>185.287</v>
       </c>
       <c r="C74" t="n">
-        <v>156.957</v>
+        <v>156.835</v>
       </c>
       <c r="D74" t="n">
-        <v>126.438</v>
+        <v>123.021</v>
       </c>
     </row>
     <row r="75">
@@ -6266,13 +6266,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>189.054</v>
+        <v>187.974</v>
       </c>
       <c r="C75" t="n">
-        <v>159.976</v>
+        <v>159.469</v>
       </c>
       <c r="D75" t="n">
-        <v>129.496</v>
+        <v>126.409</v>
       </c>
     </row>
     <row r="76">
@@ -6280,13 +6280,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>191.882</v>
+        <v>191.479</v>
       </c>
       <c r="C76" t="n">
-        <v>162.183</v>
+        <v>161.692</v>
       </c>
       <c r="D76" t="n">
-        <v>132.659</v>
+        <v>128.953</v>
       </c>
     </row>
     <row r="77">
@@ -6294,13 +6294,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>195.371</v>
+        <v>194.89</v>
       </c>
       <c r="C77" t="n">
-        <v>164.542</v>
+        <v>163.968</v>
       </c>
       <c r="D77" t="n">
-        <v>135.143</v>
+        <v>131.795</v>
       </c>
     </row>
     <row r="78">
@@ -6308,13 +6308,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>199.357</v>
+        <v>198.528</v>
       </c>
       <c r="C78" t="n">
-        <v>171.05</v>
+        <v>170.271</v>
       </c>
       <c r="D78" t="n">
-        <v>143.659</v>
+        <v>139.954</v>
       </c>
     </row>
     <row r="79">
@@ -6322,13 +6322,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>208.534</v>
+        <v>208.136</v>
       </c>
       <c r="C79" t="n">
-        <v>173.466</v>
+        <v>172.614</v>
       </c>
       <c r="D79" t="n">
-        <v>146.34</v>
+        <v>142.399</v>
       </c>
     </row>
     <row r="80">
@@ -6336,13 +6336,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>211.719</v>
+        <v>211.088</v>
       </c>
       <c r="C80" t="n">
-        <v>175.304</v>
+        <v>174.531</v>
       </c>
       <c r="D80" t="n">
-        <v>148.769</v>
+        <v>144.81</v>
       </c>
     </row>
     <row r="81">
@@ -6350,13 +6350,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>215.671</v>
+        <v>214.937</v>
       </c>
       <c r="C81" t="n">
-        <v>177.528</v>
+        <v>176.846</v>
       </c>
       <c r="D81" t="n">
-        <v>151.403</v>
+        <v>147.425</v>
       </c>
     </row>
     <row r="82">
@@ -6364,13 +6364,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>219.074</v>
+        <v>218.295</v>
       </c>
       <c r="C82" t="n">
-        <v>179.84</v>
+        <v>178.765</v>
       </c>
       <c r="D82" t="n">
-        <v>153.786</v>
+        <v>149.61</v>
       </c>
     </row>
     <row r="83">
@@ -6378,13 +6378,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>222.066</v>
+        <v>221.659</v>
       </c>
       <c r="C83" t="n">
-        <v>181.08</v>
+        <v>180.915</v>
       </c>
       <c r="D83" t="n">
-        <v>155.174</v>
+        <v>152.214</v>
       </c>
     </row>
     <row r="84">
@@ -6392,13 +6392,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>224.669</v>
+        <v>224.583</v>
       </c>
       <c r="C84" t="n">
-        <v>183.216</v>
+        <v>182.435</v>
       </c>
       <c r="D84" t="n">
-        <v>157.282</v>
+        <v>153.883</v>
       </c>
     </row>
     <row r="85">
@@ -6406,13 +6406,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>228.285</v>
+        <v>227.729</v>
       </c>
       <c r="C85" t="n">
-        <v>184.686</v>
+        <v>184.414</v>
       </c>
       <c r="D85" t="n">
-        <v>158.759</v>
+        <v>155.841</v>
       </c>
     </row>
     <row r="86">
@@ -6420,13 +6420,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>230.622</v>
+        <v>230.394</v>
       </c>
       <c r="C86" t="n">
-        <v>186.729</v>
+        <v>186.327</v>
       </c>
       <c r="D86" t="n">
-        <v>160.864</v>
+        <v>157.72</v>
       </c>
     </row>
     <row r="87">
@@ -6434,13 +6434,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>233.392</v>
+        <v>232.972</v>
       </c>
       <c r="C87" t="n">
-        <v>188.609</v>
+        <v>188.23</v>
       </c>
       <c r="D87" t="n">
-        <v>162.513</v>
+        <v>159.377</v>
       </c>
     </row>
     <row r="88">
@@ -6448,13 +6448,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>236.796</v>
+        <v>235.964</v>
       </c>
       <c r="C88" t="n">
-        <v>190.441</v>
+        <v>189.893</v>
       </c>
       <c r="D88" t="n">
-        <v>164.736</v>
+        <v>161.309</v>
       </c>
     </row>
     <row r="89">
@@ -6462,13 +6462,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>238.964</v>
+        <v>238.501</v>
       </c>
       <c r="C89" t="n">
-        <v>192.109</v>
+        <v>191.625</v>
       </c>
       <c r="D89" t="n">
-        <v>166.348</v>
+        <v>163.41</v>
       </c>
     </row>
     <row r="90">
@@ -6476,13 +6476,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>241.875</v>
+        <v>241.291</v>
       </c>
       <c r="C90" t="n">
-        <v>193.618</v>
+        <v>193.202</v>
       </c>
       <c r="D90" t="n">
-        <v>168.111</v>
+        <v>165.233</v>
       </c>
     </row>
     <row r="91">
@@ -6490,13 +6490,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>244.74</v>
+        <v>244.041</v>
       </c>
       <c r="C91" t="n">
-        <v>195.484</v>
+        <v>194.875</v>
       </c>
       <c r="D91" t="n">
-        <v>169.86</v>
+        <v>166.55</v>
       </c>
     </row>
     <row r="92">
@@ -6504,13 +6504,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>247.492</v>
+        <v>246.67</v>
       </c>
       <c r="C92" t="n">
-        <v>198.067</v>
+        <v>197.307</v>
       </c>
       <c r="D92" t="n">
-        <v>175.48</v>
+        <v>172.36</v>
       </c>
     </row>
     <row r="93">
@@ -6518,13 +6518,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>252.188</v>
+        <v>252</v>
       </c>
       <c r="C93" t="n">
-        <v>199.037</v>
+        <v>198.415</v>
       </c>
       <c r="D93" t="n">
-        <v>177.056</v>
+        <v>173.742</v>
       </c>
     </row>
     <row r="94">
@@ -6532,13 +6532,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>254.477</v>
+        <v>254.441</v>
       </c>
       <c r="C94" t="n">
-        <v>200.035</v>
+        <v>199.617</v>
       </c>
       <c r="D94" t="n">
-        <v>178.717</v>
+        <v>175.533</v>
       </c>
     </row>
     <row r="95">
@@ -6546,13 +6546,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>256.956</v>
+        <v>255.988</v>
       </c>
       <c r="C95" t="n">
-        <v>201.263</v>
+        <v>200.862</v>
       </c>
       <c r="D95" t="n">
-        <v>180.087</v>
+        <v>176.634</v>
       </c>
     </row>
     <row r="96">
@@ -6560,13 +6560,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>259.273</v>
+        <v>258.941</v>
       </c>
       <c r="C96" t="n">
-        <v>202.395</v>
+        <v>201.966</v>
       </c>
       <c r="D96" t="n">
-        <v>181.419</v>
+        <v>178.052</v>
       </c>
     </row>
     <row r="97">
@@ -6574,13 +6574,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>260.564</v>
+        <v>260.692</v>
       </c>
       <c r="C97" t="n">
-        <v>203.354</v>
+        <v>202.968</v>
       </c>
       <c r="D97" t="n">
-        <v>182.845</v>
+        <v>179.081</v>
       </c>
     </row>
     <row r="98">
@@ -6588,13 +6588,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>263.447</v>
+        <v>263.12</v>
       </c>
       <c r="C98" t="n">
-        <v>204.925</v>
+        <v>204.426</v>
       </c>
       <c r="D98" t="n">
-        <v>184.315</v>
+        <v>180.645</v>
       </c>
     </row>
     <row r="99">
@@ -6602,13 +6602,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>265.151</v>
+        <v>264.949</v>
       </c>
       <c r="C99" t="n">
-        <v>205.864</v>
+        <v>205.533</v>
       </c>
       <c r="D99" t="n">
-        <v>185.462</v>
+        <v>182.071</v>
       </c>
     </row>
     <row r="100">
@@ -6616,13 +6616,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>267.055</v>
+        <v>266.757</v>
       </c>
       <c r="C100" t="n">
-        <v>207.005</v>
+        <v>206.565</v>
       </c>
       <c r="D100" t="n">
-        <v>186.508</v>
+        <v>183.372</v>
       </c>
     </row>
     <row r="101">
@@ -6630,13 +6630,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>268.785</v>
+        <v>268.494</v>
       </c>
       <c r="C101" t="n">
-        <v>207.893</v>
+        <v>207.673</v>
       </c>
       <c r="D101" t="n">
-        <v>187.497</v>
+        <v>183.83</v>
       </c>
     </row>
     <row r="102">
@@ -6644,13 +6644,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>270.099</v>
+        <v>270.474</v>
       </c>
       <c r="C102" t="n">
-        <v>208.368</v>
+        <v>208.856</v>
       </c>
       <c r="D102" t="n">
-        <v>188.123</v>
+        <v>185.879</v>
       </c>
     </row>
     <row r="103">
@@ -6658,13 +6658,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>271.454</v>
+        <v>272.232</v>
       </c>
       <c r="C103" t="n">
-        <v>209.622</v>
+        <v>209.847</v>
       </c>
       <c r="D103" t="n">
-        <v>188.899</v>
+        <v>186.239</v>
       </c>
     </row>
     <row r="104">
@@ -6672,13 +6672,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>273.596</v>
+        <v>273.796</v>
       </c>
       <c r="C104" t="n">
-        <v>210.817</v>
+        <v>210.888</v>
       </c>
       <c r="D104" t="n">
-        <v>190.169</v>
+        <v>187.334</v>
       </c>
     </row>
     <row r="105">
@@ -6686,13 +6686,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>275.469</v>
+        <v>275.345</v>
       </c>
       <c r="C105" t="n">
-        <v>211.723</v>
+        <v>211.609</v>
       </c>
       <c r="D105" t="n">
-        <v>191.578</v>
+        <v>188.355</v>
       </c>
     </row>
     <row r="106">
@@ -6700,13 +6700,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>277.102</v>
+        <v>277.216</v>
       </c>
       <c r="C106" t="n">
-        <v>212.718</v>
+        <v>212.724</v>
       </c>
       <c r="D106" t="n">
-        <v>192.901</v>
+        <v>189.216</v>
       </c>
     </row>
     <row r="107">
@@ -6714,13 +6714,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>279.669</v>
+        <v>279.897</v>
       </c>
       <c r="C107" t="n">
-        <v>212.284</v>
+        <v>212.148</v>
       </c>
       <c r="D107" t="n">
-        <v>196.066</v>
+        <v>192.141</v>
       </c>
     </row>
     <row r="108">
@@ -6728,13 +6728,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>281.186</v>
+        <v>281.339</v>
       </c>
       <c r="C108" t="n">
-        <v>212.667</v>
+        <v>212.712</v>
       </c>
       <c r="D108" t="n">
-        <v>196.888</v>
+        <v>192.417</v>
       </c>
     </row>
     <row r="109">
@@ -6742,13 +6742,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>282.239</v>
+        <v>282.442</v>
       </c>
       <c r="C109" t="n">
-        <v>213.316</v>
+        <v>213.374</v>
       </c>
       <c r="D109" t="n">
-        <v>197.856</v>
+        <v>193.412</v>
       </c>
     </row>
     <row r="110">
@@ -6756,13 +6756,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>284.077</v>
+        <v>283.876</v>
       </c>
       <c r="C110" t="n">
-        <v>214.513</v>
+        <v>214.037</v>
       </c>
       <c r="D110" t="n">
-        <v>199.432</v>
+        <v>195.26</v>
       </c>
     </row>
     <row r="111">
@@ -6770,13 +6770,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>285.672</v>
+        <v>285.215</v>
       </c>
       <c r="C111" t="n">
-        <v>215.442</v>
+        <v>214.917</v>
       </c>
       <c r="D111" t="n">
-        <v>200.126</v>
+        <v>196.401</v>
       </c>
     </row>
     <row r="112">
@@ -6784,13 +6784,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>286.915</v>
+        <v>286.773</v>
       </c>
       <c r="C112" t="n">
-        <v>215.956</v>
+        <v>215.545</v>
       </c>
       <c r="D112" t="n">
-        <v>200.46</v>
+        <v>196.145</v>
       </c>
     </row>
     <row r="113">
@@ -6798,13 +6798,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>288.2</v>
+        <v>287.556</v>
       </c>
       <c r="C113" t="n">
-        <v>216.613</v>
+        <v>216.294</v>
       </c>
       <c r="D113" t="n">
-        <v>201.517</v>
+        <v>197.539</v>
       </c>
     </row>
     <row r="114">
@@ -6812,13 +6812,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>289.231</v>
+        <v>289.092</v>
       </c>
       <c r="C114" t="n">
-        <v>217.51</v>
+        <v>217.171</v>
       </c>
       <c r="D114" t="n">
-        <v>202.232</v>
+        <v>196.533</v>
       </c>
     </row>
     <row r="115">
@@ -6826,13 +6826,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>290.276</v>
+        <v>290.219</v>
       </c>
       <c r="C115" t="n">
-        <v>218.121</v>
+        <v>217.812</v>
       </c>
       <c r="D115" t="n">
-        <v>202.876</v>
+        <v>198.071</v>
       </c>
     </row>
     <row r="116">
@@ -6840,13 +6840,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>291.468</v>
+        <v>291.367</v>
       </c>
       <c r="C116" t="n">
-        <v>218.853</v>
+        <v>218.628</v>
       </c>
       <c r="D116" t="n">
-        <v>203.658</v>
+        <v>198.866</v>
       </c>
     </row>
     <row r="117">
@@ -6854,13 +6854,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>292.613</v>
+        <v>292.49</v>
       </c>
       <c r="C117" t="n">
-        <v>219.422</v>
+        <v>219.295</v>
       </c>
       <c r="D117" t="n">
-        <v>204.266</v>
+        <v>199.884</v>
       </c>
     </row>
     <row r="118">
@@ -6868,13 +6868,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>293.834</v>
+        <v>293.682</v>
       </c>
       <c r="C118" t="n">
-        <v>220.364</v>
+        <v>220.112</v>
       </c>
       <c r="D118" t="n">
-        <v>205.049</v>
+        <v>200.382</v>
       </c>
     </row>
     <row r="119">
@@ -6882,13 +6882,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>294.741</v>
+        <v>294.838</v>
       </c>
       <c r="C119" t="n">
-        <v>220.944</v>
+        <v>220.814</v>
       </c>
       <c r="D119" t="n">
-        <v>205.774</v>
+        <v>202.185</v>
       </c>
     </row>
   </sheetData>
@@ -6936,13 +6936,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>79.6751</v>
+        <v>80.027</v>
       </c>
       <c r="C2" t="n">
-        <v>41.496</v>
+        <v>42.2744</v>
       </c>
       <c r="D2" t="n">
-        <v>31.7622</v>
+        <v>32.0254</v>
       </c>
     </row>
     <row r="3">
@@ -6950,13 +6950,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>80.00790000000001</v>
+        <v>80.5459</v>
       </c>
       <c r="C3" t="n">
-        <v>41.7759</v>
+        <v>42.8507</v>
       </c>
       <c r="D3" t="n">
-        <v>32.05</v>
+        <v>32.5432</v>
       </c>
     </row>
     <row r="4">
@@ -6964,13 +6964,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>80.3874</v>
+        <v>80.736</v>
       </c>
       <c r="C4" t="n">
-        <v>42.1754</v>
+        <v>43.0463</v>
       </c>
       <c r="D4" t="n">
-        <v>32.2543</v>
+        <v>32.8022</v>
       </c>
     </row>
     <row r="5">
@@ -6978,13 +6978,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>80.637</v>
+        <v>81.05589999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>42.642</v>
+        <v>43.4308</v>
       </c>
       <c r="D5" t="n">
-        <v>32.5532</v>
+        <v>32.7997</v>
       </c>
     </row>
     <row r="6">
@@ -6992,13 +6992,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>81.0827</v>
+        <v>81.3823</v>
       </c>
       <c r="C6" t="n">
-        <v>42.9928</v>
+        <v>43.9072</v>
       </c>
       <c r="D6" t="n">
-        <v>32.7474</v>
+        <v>33.1998</v>
       </c>
     </row>
     <row r="7">
@@ -7006,13 +7006,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>81.4988</v>
+        <v>81.6408</v>
       </c>
       <c r="C7" t="n">
-        <v>43.6435</v>
+        <v>44.4017</v>
       </c>
       <c r="D7" t="n">
-        <v>33.3087</v>
+        <v>33.7105</v>
       </c>
     </row>
     <row r="8">
@@ -7020,13 +7020,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>81.35550000000001</v>
+        <v>81.6349</v>
       </c>
       <c r="C8" t="n">
-        <v>43.9104</v>
+        <v>44.8299</v>
       </c>
       <c r="D8" t="n">
-        <v>33.4085</v>
+        <v>33.7341</v>
       </c>
     </row>
     <row r="9">
@@ -7034,13 +7034,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>82.0192</v>
+        <v>82.1677</v>
       </c>
       <c r="C9" t="n">
-        <v>44.1831</v>
+        <v>45.0481</v>
       </c>
       <c r="D9" t="n">
-        <v>33.788</v>
+        <v>34.0841</v>
       </c>
     </row>
     <row r="10">
@@ -7048,13 +7048,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>82.45489999999999</v>
+        <v>82.5814</v>
       </c>
       <c r="C10" t="n">
-        <v>44.8521</v>
+        <v>45.6828</v>
       </c>
       <c r="D10" t="n">
-        <v>34.1565</v>
+        <v>34.5437</v>
       </c>
     </row>
     <row r="11">
@@ -7062,13 +7062,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>82.7484</v>
+        <v>82.92570000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>43.5127</v>
+        <v>44.6549</v>
       </c>
       <c r="D11" t="n">
-        <v>33.6765</v>
+        <v>33.9195</v>
       </c>
     </row>
     <row r="12">
@@ -7076,13 +7076,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>81.185</v>
+        <v>81.4324</v>
       </c>
       <c r="C12" t="n">
-        <v>44.2366</v>
+        <v>44.7207</v>
       </c>
       <c r="D12" t="n">
-        <v>34.089</v>
+        <v>34.3234</v>
       </c>
     </row>
     <row r="13">
@@ -7090,13 +7090,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>81.58450000000001</v>
+        <v>81.8125</v>
       </c>
       <c r="C13" t="n">
-        <v>44.5323</v>
+        <v>45.0823</v>
       </c>
       <c r="D13" t="n">
-        <v>34.1587</v>
+        <v>34.4853</v>
       </c>
     </row>
     <row r="14">
@@ -7104,13 +7104,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>81.7914</v>
+        <v>82.08799999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>44.8703</v>
+        <v>45.3948</v>
       </c>
       <c r="D14" t="n">
-        <v>34.4304</v>
+        <v>34.6943</v>
       </c>
     </row>
     <row r="15">
@@ -7118,13 +7118,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>82.1026</v>
+        <v>82.3197</v>
       </c>
       <c r="C15" t="n">
-        <v>45.2313</v>
+        <v>45.6646</v>
       </c>
       <c r="D15" t="n">
-        <v>34.5576</v>
+        <v>34.7249</v>
       </c>
     </row>
     <row r="16">
@@ -7132,13 +7132,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>82.2137</v>
+        <v>82.4333</v>
       </c>
       <c r="C16" t="n">
-        <v>45.2407</v>
+        <v>45.9347</v>
       </c>
       <c r="D16" t="n">
-        <v>34.8614</v>
+        <v>34.947</v>
       </c>
     </row>
     <row r="17">
@@ -7146,13 +7146,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>82.2796</v>
+        <v>82.51909999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>45.8505</v>
+        <v>46.2579</v>
       </c>
       <c r="D17" t="n">
-        <v>35.0249</v>
+        <v>35.1993</v>
       </c>
     </row>
     <row r="18">
@@ -7160,13 +7160,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>82.776</v>
+        <v>83.0145</v>
       </c>
       <c r="C18" t="n">
-        <v>45.8788</v>
+        <v>46.4569</v>
       </c>
       <c r="D18" t="n">
-        <v>35.19</v>
+        <v>35.3401</v>
       </c>
     </row>
     <row r="19">
@@ -7174,13 +7174,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>82.7989</v>
+        <v>83.1191</v>
       </c>
       <c r="C19" t="n">
-        <v>46.2303</v>
+        <v>46.6948</v>
       </c>
       <c r="D19" t="n">
-        <v>35.4563</v>
+        <v>35.5099</v>
       </c>
     </row>
     <row r="20">
@@ -7188,13 +7188,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>83.3835</v>
+        <v>83.5891</v>
       </c>
       <c r="C20" t="n">
-        <v>46.3895</v>
+        <v>47.0003</v>
       </c>
       <c r="D20" t="n">
-        <v>35.772</v>
+        <v>35.892</v>
       </c>
     </row>
     <row r="21">
@@ -7202,13 +7202,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>83.42700000000001</v>
+        <v>83.62520000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>46.7706</v>
+        <v>47.2972</v>
       </c>
       <c r="D21" t="n">
-        <v>36.0521</v>
+        <v>36.1535</v>
       </c>
     </row>
     <row r="22">
@@ -7216,13 +7216,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>83.4875</v>
+        <v>83.6795</v>
       </c>
       <c r="C22" t="n">
-        <v>47.2081</v>
+        <v>47.7372</v>
       </c>
       <c r="D22" t="n">
-        <v>36.2649</v>
+        <v>36.2588</v>
       </c>
     </row>
     <row r="23">
@@ -7230,13 +7230,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>83.6832</v>
+        <v>83.8809</v>
       </c>
       <c r="C23" t="n">
-        <v>47.5426</v>
+        <v>48.0924</v>
       </c>
       <c r="D23" t="n">
-        <v>36.4379</v>
+        <v>36.5167</v>
       </c>
     </row>
     <row r="24">
@@ -7244,13 +7244,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>83.8575</v>
+        <v>84.07210000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>47.9434</v>
+        <v>48.3395</v>
       </c>
       <c r="D24" t="n">
-        <v>36.7098</v>
+        <v>36.7889</v>
       </c>
     </row>
     <row r="25">
@@ -7258,13 +7258,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>84.3593</v>
+        <v>84.5111</v>
       </c>
       <c r="C25" t="n">
-        <v>48.159</v>
+        <v>48.6653</v>
       </c>
       <c r="D25" t="n">
-        <v>36.9852</v>
+        <v>36.9468</v>
       </c>
     </row>
     <row r="26">
@@ -7272,13 +7272,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>84.67919999999999</v>
+        <v>84.8635</v>
       </c>
       <c r="C26" t="n">
-        <v>46.19</v>
+        <v>46.708</v>
       </c>
       <c r="D26" t="n">
-        <v>36.1582</v>
+        <v>36.1619</v>
       </c>
     </row>
     <row r="27">
@@ -7286,13 +7286,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>83.4597</v>
+        <v>83.7753</v>
       </c>
       <c r="C27" t="n">
-        <v>46.6927</v>
+        <v>47.0163</v>
       </c>
       <c r="D27" t="n">
-        <v>36.2385</v>
+        <v>36.2478</v>
       </c>
     </row>
     <row r="28">
@@ -7300,13 +7300,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>83.7246</v>
+        <v>83.9819</v>
       </c>
       <c r="C28" t="n">
-        <v>46.6047</v>
+        <v>47.1073</v>
       </c>
       <c r="D28" t="n">
-        <v>36.4799</v>
+        <v>36.5179</v>
       </c>
     </row>
     <row r="29">
@@ -7314,13 +7314,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>83.9803</v>
+        <v>84.3044</v>
       </c>
       <c r="C29" t="n">
-        <v>46.6479</v>
+        <v>47.1274</v>
       </c>
       <c r="D29" t="n">
-        <v>36.621</v>
+        <v>36.6437</v>
       </c>
     </row>
     <row r="30">
@@ -7328,13 +7328,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>84.1006</v>
+        <v>84.3229</v>
       </c>
       <c r="C30" t="n">
-        <v>47.11</v>
+        <v>47.5493</v>
       </c>
       <c r="D30" t="n">
-        <v>36.8114</v>
+        <v>36.9119</v>
       </c>
     </row>
     <row r="31">
@@ -7342,13 +7342,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>84.2821</v>
+        <v>84.4813</v>
       </c>
       <c r="C31" t="n">
-        <v>47.2745</v>
+        <v>47.7378</v>
       </c>
       <c r="D31" t="n">
-        <v>36.9629</v>
+        <v>36.9501</v>
       </c>
     </row>
     <row r="32">
@@ -7356,13 +7356,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>84.4139</v>
+        <v>84.5861</v>
       </c>
       <c r="C32" t="n">
-        <v>47.4756</v>
+        <v>47.929</v>
       </c>
       <c r="D32" t="n">
-        <v>37.1149</v>
+        <v>37.1408</v>
       </c>
     </row>
     <row r="33">
@@ -7370,13 +7370,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>84.5213</v>
+        <v>84.8291</v>
       </c>
       <c r="C33" t="n">
-        <v>47.9009</v>
+        <v>48.35</v>
       </c>
       <c r="D33" t="n">
-        <v>37.2778</v>
+        <v>37.302</v>
       </c>
     </row>
     <row r="34">
@@ -7384,13 +7384,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>84.867</v>
+        <v>84.96210000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>48.0067</v>
+        <v>48.5218</v>
       </c>
       <c r="D34" t="n">
-        <v>37.5107</v>
+        <v>37.5371</v>
       </c>
     </row>
     <row r="35">
@@ -7398,13 +7398,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>84.9049</v>
+        <v>85.1433</v>
       </c>
       <c r="C35" t="n">
-        <v>48.3251</v>
+        <v>48.7972</v>
       </c>
       <c r="D35" t="n">
-        <v>37.5932</v>
+        <v>37.5996</v>
       </c>
     </row>
     <row r="36">
@@ -7412,13 +7412,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>84.9237</v>
+        <v>85.17789999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>48.4753</v>
+        <v>49.0003</v>
       </c>
       <c r="D36" t="n">
-        <v>37.8573</v>
+        <v>37.8519</v>
       </c>
     </row>
     <row r="37">
@@ -7426,13 +7426,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>85.24720000000001</v>
+        <v>85.452</v>
       </c>
       <c r="C37" t="n">
-        <v>48.7884</v>
+        <v>49.3556</v>
       </c>
       <c r="D37" t="n">
-        <v>38.0984</v>
+        <v>38.0385</v>
       </c>
     </row>
     <row r="38">
@@ -7440,13 +7440,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>85.57170000000001</v>
+        <v>85.81489999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>49.1232</v>
+        <v>49.5961</v>
       </c>
       <c r="D38" t="n">
-        <v>38.3147</v>
+        <v>38.3057</v>
       </c>
     </row>
     <row r="39">
@@ -7454,13 +7454,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>85.5544</v>
+        <v>85.70229999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>49.4495</v>
+        <v>49.8984</v>
       </c>
       <c r="D39" t="n">
-        <v>38.399</v>
+        <v>38.4312</v>
       </c>
     </row>
     <row r="40">
@@ -7468,13 +7468,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>85.9229</v>
+        <v>86.1875</v>
       </c>
       <c r="C40" t="n">
-        <v>47.3611</v>
+        <v>47.7468</v>
       </c>
       <c r="D40" t="n">
-        <v>37.8219</v>
+        <v>37.8441</v>
       </c>
     </row>
     <row r="41">
@@ -7482,13 +7482,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>84.4198</v>
+        <v>84.7632</v>
       </c>
       <c r="C41" t="n">
-        <v>47.488</v>
+        <v>48.0447</v>
       </c>
       <c r="D41" t="n">
-        <v>37.9579</v>
+        <v>38.0256</v>
       </c>
     </row>
     <row r="42">
@@ -7496,13 +7496,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>84.5012</v>
+        <v>84.9271</v>
       </c>
       <c r="C42" t="n">
-        <v>47.6738</v>
+        <v>48.2237</v>
       </c>
       <c r="D42" t="n">
-        <v>38.0038</v>
+        <v>38.1345</v>
       </c>
     </row>
     <row r="43">
@@ -7510,13 +7510,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>84.74720000000001</v>
+        <v>85.4074</v>
       </c>
       <c r="C43" t="n">
-        <v>47.8919</v>
+        <v>49.0789</v>
       </c>
       <c r="D43" t="n">
-        <v>38.1774</v>
+        <v>38.7804</v>
       </c>
     </row>
     <row r="44">
@@ -7524,13 +7524,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>84.85680000000001</v>
+        <v>85.32680000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>48.1622</v>
+        <v>48.8412</v>
       </c>
       <c r="D44" t="n">
-        <v>38.2932</v>
+        <v>38.5191</v>
       </c>
     </row>
     <row r="45">
@@ -7538,13 +7538,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>85.0029</v>
+        <v>85.4264</v>
       </c>
       <c r="C45" t="n">
-        <v>48.3453</v>
+        <v>49.0566</v>
       </c>
       <c r="D45" t="n">
-        <v>38.4266</v>
+        <v>38.66</v>
       </c>
     </row>
     <row r="46">
@@ -7552,13 +7552,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>85.16030000000001</v>
+        <v>85.4952</v>
       </c>
       <c r="C46" t="n">
-        <v>48.7155</v>
+        <v>49.2781</v>
       </c>
       <c r="D46" t="n">
-        <v>38.6978</v>
+        <v>38.781</v>
       </c>
     </row>
     <row r="47">
@@ -7566,13 +7566,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>85.46559999999999</v>
+        <v>85.5746</v>
       </c>
       <c r="C47" t="n">
-        <v>49.2278</v>
+        <v>49.4513</v>
       </c>
       <c r="D47" t="n">
-        <v>39.0407</v>
+        <v>38.9763</v>
       </c>
     </row>
     <row r="48">
@@ -7580,13 +7580,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>86.0322</v>
+        <v>86.0478</v>
       </c>
       <c r="C48" t="n">
-        <v>50.0849</v>
+        <v>50.4692</v>
       </c>
       <c r="D48" t="n">
-        <v>39.4858</v>
+        <v>39.5752</v>
       </c>
     </row>
     <row r="49">
@@ -7594,13 +7594,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>85.84739999999999</v>
+        <v>88.1602</v>
       </c>
       <c r="C49" t="n">
-        <v>49.9149</v>
+        <v>53.8269</v>
       </c>
       <c r="D49" t="n">
-        <v>39.4449</v>
+        <v>42.6234</v>
       </c>
     </row>
     <row r="50">
@@ -7608,13 +7608,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>86.4699</v>
+        <v>87.7197</v>
       </c>
       <c r="C50" t="n">
-        <v>50.9626</v>
+        <v>53.0016</v>
       </c>
       <c r="D50" t="n">
-        <v>40.2103</v>
+        <v>41.8661</v>
       </c>
     </row>
     <row r="51">
@@ -7622,13 +7622,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>87.16930000000001</v>
+        <v>87.8976</v>
       </c>
       <c r="C51" t="n">
-        <v>51.7375</v>
+        <v>53.0297</v>
       </c>
       <c r="D51" t="n">
-        <v>41.078</v>
+        <v>41.8836</v>
       </c>
     </row>
     <row r="52">
@@ -7636,13 +7636,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>87.93429999999999</v>
+        <v>90.1314</v>
       </c>
       <c r="C52" t="n">
-        <v>53.4198</v>
+        <v>56.1469</v>
       </c>
       <c r="D52" t="n">
-        <v>42.091</v>
+        <v>44.5146</v>
       </c>
     </row>
     <row r="53">
@@ -7650,13 +7650,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>88.87350000000001</v>
+        <v>89.91889999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>54.5921</v>
+        <v>56.0409</v>
       </c>
       <c r="D53" t="n">
-        <v>43.0331</v>
+        <v>44.277</v>
       </c>
     </row>
     <row r="54">
@@ -7664,13 +7664,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>89.8913</v>
+        <v>90.5284</v>
       </c>
       <c r="C54" t="n">
-        <v>52.9326</v>
+        <v>53.6798</v>
       </c>
       <c r="D54" t="n">
-        <v>43.0122</v>
+        <v>43.685</v>
       </c>
     </row>
     <row r="55">
@@ -7678,13 +7678,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>88.6748</v>
+        <v>89.7427</v>
       </c>
       <c r="C55" t="n">
-        <v>54.0165</v>
+        <v>55.798</v>
       </c>
       <c r="D55" t="n">
-        <v>43.8652</v>
+        <v>45.2058</v>
       </c>
     </row>
     <row r="56">
@@ -7692,13 +7692,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>90.5273</v>
+        <v>92.5077</v>
       </c>
       <c r="C56" t="n">
-        <v>56.2994</v>
+        <v>58.7831</v>
       </c>
       <c r="D56" t="n">
-        <v>46.4224</v>
+        <v>47.4604</v>
       </c>
     </row>
     <row r="57">
@@ -7706,13 +7706,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>94.4892</v>
+        <v>93.7454</v>
       </c>
       <c r="C57" t="n">
-        <v>62.1249</v>
+        <v>60.6311</v>
       </c>
       <c r="D57" t="n">
-        <v>50.0681</v>
+        <v>48.6741</v>
       </c>
     </row>
     <row r="58">
@@ -7720,13 +7720,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>95.461</v>
+        <v>95.78489999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>63.4912</v>
+        <v>63.8361</v>
       </c>
       <c r="D58" t="n">
-        <v>50.6449</v>
+        <v>50.9935</v>
       </c>
     </row>
     <row r="59">
@@ -7734,13 +7734,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>99.4276</v>
+        <v>100.368</v>
       </c>
       <c r="C59" t="n">
-        <v>68.6763</v>
+        <v>69.71559999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>54.9285</v>
+        <v>55.2251</v>
       </c>
     </row>
     <row r="60">
@@ -7748,13 +7748,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>101.583</v>
+        <v>103.662</v>
       </c>
       <c r="C60" t="n">
-        <v>73.93859999999999</v>
+        <v>73.67059999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>57.4452</v>
+        <v>58.2891</v>
       </c>
     </row>
     <row r="61">
@@ -7762,13 +7762,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>103.718</v>
+        <v>108.185</v>
       </c>
       <c r="C61" t="n">
-        <v>75.71769999999999</v>
+        <v>78.88809999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>59.5909</v>
+        <v>62.4661</v>
       </c>
     </row>
     <row r="62">
@@ -7776,13 +7776,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>104.494</v>
+        <v>112.789</v>
       </c>
       <c r="C62" t="n">
-        <v>76.8948</v>
+        <v>84.23350000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>60.193</v>
+        <v>66.46850000000001</v>
       </c>
     </row>
     <row r="63">
@@ -7790,13 +7790,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>110.612</v>
+        <v>115.455</v>
       </c>
       <c r="C63" t="n">
-        <v>83.48180000000001</v>
+        <v>87.5808</v>
       </c>
       <c r="D63" t="n">
-        <v>65.6628</v>
+        <v>68.8741</v>
       </c>
     </row>
     <row r="64">
@@ -7804,13 +7804,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>116.354</v>
+        <v>121.609</v>
       </c>
       <c r="C64" t="n">
-        <v>91.1408</v>
+        <v>94.50190000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>70.5842</v>
+        <v>73.896</v>
       </c>
     </row>
     <row r="65">
@@ -7818,13 +7818,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>122.251</v>
+        <v>127.142</v>
       </c>
       <c r="C65" t="n">
-        <v>98.7647</v>
+        <v>100.812</v>
       </c>
       <c r="D65" t="n">
-        <v>75.9997</v>
+        <v>78.18340000000001</v>
       </c>
     </row>
     <row r="66">
@@ -7832,13 +7832,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>129.223</v>
+        <v>132.869</v>
       </c>
       <c r="C66" t="n">
-        <v>105.947</v>
+        <v>107.28</v>
       </c>
       <c r="D66" t="n">
-        <v>80.9759</v>
+        <v>82.5737</v>
       </c>
     </row>
     <row r="67">
@@ -7846,13 +7846,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>135.055</v>
+        <v>139.07</v>
       </c>
       <c r="C67" t="n">
-        <v>112.82</v>
+        <v>113.819</v>
       </c>
       <c r="D67" t="n">
-        <v>85.8408</v>
+        <v>87.0663</v>
       </c>
     </row>
     <row r="68">
@@ -7860,13 +7860,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>142.148</v>
+        <v>144.631</v>
       </c>
       <c r="C68" t="n">
-        <v>117.463</v>
+        <v>117.124</v>
       </c>
       <c r="D68" t="n">
-        <v>92.3028</v>
+        <v>92.0941</v>
       </c>
     </row>
     <row r="69">
@@ -7874,13 +7874,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>147.334</v>
+        <v>149.125</v>
       </c>
       <c r="C69" t="n">
-        <v>124.702</v>
+        <v>123.472</v>
       </c>
       <c r="D69" t="n">
-        <v>96.9297</v>
+        <v>96.0791</v>
       </c>
     </row>
     <row r="70">
@@ -7888,13 +7888,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>155.373</v>
+        <v>155.451</v>
       </c>
       <c r="C70" t="n">
-        <v>131.409</v>
+        <v>129.645</v>
       </c>
       <c r="D70" t="n">
-        <v>101.664</v>
+        <v>99.85590000000001</v>
       </c>
     </row>
     <row r="71">
@@ -7902,13 +7902,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>161.249</v>
+        <v>161.624</v>
       </c>
       <c r="C71" t="n">
-        <v>137.36</v>
+        <v>135.298</v>
       </c>
       <c r="D71" t="n">
-        <v>106.33</v>
+        <v>103.876</v>
       </c>
     </row>
     <row r="72">
@@ -7916,13 +7916,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>167.908</v>
+        <v>167.257</v>
       </c>
       <c r="C72" t="n">
-        <v>143.236</v>
+        <v>140.585</v>
       </c>
       <c r="D72" t="n">
-        <v>110.926</v>
+        <v>107.764</v>
       </c>
     </row>
     <row r="73">
@@ -7930,13 +7930,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>172.258</v>
+        <v>172.104</v>
       </c>
       <c r="C73" t="n">
-        <v>147.302</v>
+        <v>145.358</v>
       </c>
       <c r="D73" t="n">
-        <v>114.237</v>
+        <v>111.045</v>
       </c>
     </row>
     <row r="74">
@@ -7944,13 +7944,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>177.199</v>
+        <v>177.636</v>
       </c>
       <c r="C74" t="n">
-        <v>151.524</v>
+        <v>150.157</v>
       </c>
       <c r="D74" t="n">
-        <v>117.114</v>
+        <v>114.255</v>
       </c>
     </row>
     <row r="75">
@@ -7958,13 +7958,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>182.464</v>
+        <v>182.75</v>
       </c>
       <c r="C75" t="n">
-        <v>156.724</v>
+        <v>155.299</v>
       </c>
       <c r="D75" t="n">
-        <v>120.986</v>
+        <v>117.837</v>
       </c>
     </row>
     <row r="76">
@@ -7972,13 +7972,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>187.236</v>
+        <v>187.004</v>
       </c>
       <c r="C76" t="n">
-        <v>160.566</v>
+        <v>159.655</v>
       </c>
       <c r="D76" t="n">
-        <v>124.472</v>
+        <v>121.636</v>
       </c>
     </row>
     <row r="77">
@@ -7986,13 +7986,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>191.787</v>
+        <v>192.152</v>
       </c>
       <c r="C77" t="n">
-        <v>164.496</v>
+        <v>163.636</v>
       </c>
       <c r="D77" t="n">
-        <v>128.199</v>
+        <v>124.411</v>
       </c>
     </row>
     <row r="78">
@@ -8000,13 +8000,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>195.546</v>
+        <v>195.863</v>
       </c>
       <c r="C78" t="n">
-        <v>167.488</v>
+        <v>167.388</v>
       </c>
       <c r="D78" t="n">
-        <v>131.768</v>
+        <v>128.06</v>
       </c>
     </row>
     <row r="79">
@@ -8014,13 +8014,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>199.947</v>
+        <v>199.88</v>
       </c>
       <c r="C79" t="n">
-        <v>171.141</v>
+        <v>171.014</v>
       </c>
       <c r="D79" t="n">
-        <v>135.17</v>
+        <v>131.35</v>
       </c>
     </row>
     <row r="80">
@@ -8028,13 +8028,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>203.332</v>
+        <v>204.134</v>
       </c>
       <c r="C80" t="n">
-        <v>174.449</v>
+        <v>174.257</v>
       </c>
       <c r="D80" t="n">
-        <v>137.946</v>
+        <v>134.585</v>
       </c>
     </row>
     <row r="81">
@@ -8042,13 +8042,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>208.184</v>
+        <v>208.258</v>
       </c>
       <c r="C81" t="n">
-        <v>178.146</v>
+        <v>178.057</v>
       </c>
       <c r="D81" t="n">
-        <v>141.012</v>
+        <v>137.703</v>
       </c>
     </row>
     <row r="82">
@@ -8056,13 +8056,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>212.59</v>
+        <v>212.114</v>
       </c>
       <c r="C82" t="n">
-        <v>181.683</v>
+        <v>181.199</v>
       </c>
       <c r="D82" t="n">
-        <v>144.167</v>
+        <v>140.668</v>
       </c>
     </row>
     <row r="83">
@@ -8070,13 +8070,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>217.282</v>
+        <v>217.097</v>
       </c>
       <c r="C83" t="n">
-        <v>179.353</v>
+        <v>178.343</v>
       </c>
       <c r="D83" t="n">
-        <v>146.982</v>
+        <v>143.048</v>
       </c>
     </row>
     <row r="84">
@@ -8084,13 +8084,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>216.138</v>
+        <v>217.013</v>
       </c>
       <c r="C84" t="n">
-        <v>181.665</v>
+        <v>181.18</v>
       </c>
       <c r="D84" t="n">
-        <v>148.915</v>
+        <v>145.662</v>
       </c>
     </row>
     <row r="85">
@@ -8098,13 +8098,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>220.16</v>
+        <v>221.023</v>
       </c>
       <c r="C85" t="n">
-        <v>184.95</v>
+        <v>184.494</v>
       </c>
       <c r="D85" t="n">
-        <v>151.681</v>
+        <v>148.582</v>
       </c>
     </row>
     <row r="86">
@@ -8112,13 +8112,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>223.474</v>
+        <v>224.297</v>
       </c>
       <c r="C86" t="n">
-        <v>187.441</v>
+        <v>187.264</v>
       </c>
       <c r="D86" t="n">
-        <v>154.068</v>
+        <v>151.179</v>
       </c>
     </row>
     <row r="87">
@@ -8126,13 +8126,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>226.904</v>
+        <v>227.975</v>
       </c>
       <c r="C87" t="n">
-        <v>190.354</v>
+        <v>190.064</v>
       </c>
       <c r="D87" t="n">
-        <v>156.433</v>
+        <v>153.302</v>
       </c>
     </row>
     <row r="88">
@@ -8140,13 +8140,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>231.217</v>
+        <v>231.344</v>
       </c>
       <c r="C88" t="n">
-        <v>193.238</v>
+        <v>192.962</v>
       </c>
       <c r="D88" t="n">
-        <v>159.036</v>
+        <v>155.759</v>
       </c>
     </row>
     <row r="89">
@@ -8154,13 +8154,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>234.053</v>
+        <v>233.971</v>
       </c>
       <c r="C89" t="n">
-        <v>195.792</v>
+        <v>195.221</v>
       </c>
       <c r="D89" t="n">
-        <v>161.127</v>
+        <v>157.911</v>
       </c>
     </row>
     <row r="90">
@@ -8168,13 +8168,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>238.782</v>
+        <v>238.047</v>
       </c>
       <c r="C90" t="n">
-        <v>199.127</v>
+        <v>197.871</v>
       </c>
       <c r="D90" t="n">
-        <v>163.671</v>
+        <v>160.196</v>
       </c>
     </row>
     <row r="91">
@@ -8182,13 +8182,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>242.154</v>
+        <v>241.603</v>
       </c>
       <c r="C91" t="n">
-        <v>202.126</v>
+        <v>200.998</v>
       </c>
       <c r="D91" t="n">
-        <v>165.964</v>
+        <v>162.143</v>
       </c>
     </row>
     <row r="92">
@@ -8196,13 +8196,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>245.801</v>
+        <v>244.973</v>
       </c>
       <c r="C92" t="n">
-        <v>204.398</v>
+        <v>203.367</v>
       </c>
       <c r="D92" t="n">
-        <v>168.251</v>
+        <v>164.417</v>
       </c>
     </row>
     <row r="93">
@@ -8210,13 +8210,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>249.333</v>
+        <v>248.289</v>
       </c>
       <c r="C93" t="n">
-        <v>207.396</v>
+        <v>206.348</v>
       </c>
       <c r="D93" t="n">
-        <v>170.588</v>
+        <v>166.734</v>
       </c>
     </row>
     <row r="94">
@@ -8224,13 +8224,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>252.668</v>
+        <v>252.351</v>
       </c>
       <c r="C94" t="n">
-        <v>210.366</v>
+        <v>209.397</v>
       </c>
       <c r="D94" t="n">
-        <v>172.744</v>
+        <v>168.75</v>
       </c>
     </row>
     <row r="95">
@@ -8238,13 +8238,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>256.353</v>
+        <v>255.064</v>
       </c>
       <c r="C95" t="n">
-        <v>213.259</v>
+        <v>212.222</v>
       </c>
       <c r="D95" t="n">
-        <v>175.323</v>
+        <v>171.388</v>
       </c>
     </row>
     <row r="96">
@@ -8252,13 +8252,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>259.495</v>
+        <v>258.828</v>
       </c>
       <c r="C96" t="n">
-        <v>216.324</v>
+        <v>215.658</v>
       </c>
       <c r="D96" t="n">
-        <v>177.307</v>
+        <v>173.822</v>
       </c>
     </row>
     <row r="97">
@@ -8266,13 +8266,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>262.69</v>
+        <v>262.162</v>
       </c>
       <c r="C97" t="n">
-        <v>208.844</v>
+        <v>207.827</v>
       </c>
       <c r="D97" t="n">
-        <v>178.633</v>
+        <v>174.537</v>
       </c>
     </row>
     <row r="98">
@@ -8280,13 +8280,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>261.477</v>
+        <v>259.459</v>
       </c>
       <c r="C98" t="n">
-        <v>210.652</v>
+        <v>209.799</v>
       </c>
       <c r="D98" t="n">
-        <v>180.348</v>
+        <v>176.513</v>
       </c>
     </row>
     <row r="99">
@@ -8294,13 +8294,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>263.985</v>
+        <v>263.09</v>
       </c>
       <c r="C99" t="n">
-        <v>212.737</v>
+        <v>211.91</v>
       </c>
       <c r="D99" t="n">
-        <v>181.902</v>
+        <v>178.134</v>
       </c>
     </row>
     <row r="100">
@@ -8308,13 +8308,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>266.341</v>
+        <v>264.347</v>
       </c>
       <c r="C100" t="n">
-        <v>214.761</v>
+        <v>213.777</v>
       </c>
       <c r="D100" t="n">
-        <v>183.391</v>
+        <v>179.839</v>
       </c>
     </row>
     <row r="101">
@@ -8322,13 +8322,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>268.841</v>
+        <v>267.383</v>
       </c>
       <c r="C101" t="n">
-        <v>216.635</v>
+        <v>215.892</v>
       </c>
       <c r="D101" t="n">
-        <v>185.191</v>
+        <v>181.505</v>
       </c>
     </row>
     <row r="102">
@@ -8336,13 +8336,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>271.725</v>
+        <v>270.866</v>
       </c>
       <c r="C102" t="n">
-        <v>218.953</v>
+        <v>218.298</v>
       </c>
       <c r="D102" t="n">
-        <v>187.096</v>
+        <v>183.713</v>
       </c>
     </row>
     <row r="103">
@@ -8350,13 +8350,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>274.313</v>
+        <v>273.005</v>
       </c>
       <c r="C103" t="n">
-        <v>221.152</v>
+        <v>220.263</v>
       </c>
       <c r="D103" t="n">
-        <v>188.728</v>
+        <v>183.581</v>
       </c>
     </row>
     <row r="104">
@@ -8364,13 +8364,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>276.887</v>
+        <v>275.952</v>
       </c>
       <c r="C104" t="n">
-        <v>223.162</v>
+        <v>222.84</v>
       </c>
       <c r="D104" t="n">
-        <v>190.262</v>
+        <v>186.173</v>
       </c>
     </row>
     <row r="105">
@@ -8378,13 +8378,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>279.515</v>
+        <v>278.976</v>
       </c>
       <c r="C105" t="n">
-        <v>225.439</v>
+        <v>224.942</v>
       </c>
       <c r="D105" t="n">
-        <v>191.882</v>
+        <v>187.814</v>
       </c>
     </row>
     <row r="106">
@@ -8392,13 +8392,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>282.384</v>
+        <v>281.841</v>
       </c>
       <c r="C106" t="n">
-        <v>227.728</v>
+        <v>227.225</v>
       </c>
       <c r="D106" t="n">
-        <v>193.69</v>
+        <v>189.534</v>
       </c>
     </row>
     <row r="107">
@@ -8406,13 +8406,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>284.878</v>
+        <v>284.594</v>
       </c>
       <c r="C107" t="n">
-        <v>230.085</v>
+        <v>229.759</v>
       </c>
       <c r="D107" t="n">
-        <v>195.348</v>
+        <v>190.929</v>
       </c>
     </row>
     <row r="108">
@@ -8420,13 +8420,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>287.717</v>
+        <v>287.167</v>
       </c>
       <c r="C108" t="n">
-        <v>232.301</v>
+        <v>231.658</v>
       </c>
       <c r="D108" t="n">
-        <v>197.023</v>
+        <v>191.794</v>
       </c>
     </row>
     <row r="109">
@@ -8434,13 +8434,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>289.963</v>
+        <v>289.788</v>
       </c>
       <c r="C109" t="n">
-        <v>234.697</v>
+        <v>234.468</v>
       </c>
       <c r="D109" t="n">
-        <v>198.873</v>
+        <v>195.159</v>
       </c>
     </row>
     <row r="110">
@@ -8448,13 +8448,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>293.066</v>
+        <v>292.836</v>
       </c>
       <c r="C110" t="n">
-        <v>237.405</v>
+        <v>237.122</v>
       </c>
       <c r="D110" t="n">
-        <v>200.63</v>
+        <v>196.71</v>
       </c>
     </row>
     <row r="111">
@@ -8462,13 +8462,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>295.541</v>
+        <v>295.647</v>
       </c>
       <c r="C111" t="n">
-        <v>224.83</v>
+        <v>224.636</v>
       </c>
       <c r="D111" t="n">
-        <v>199.569</v>
+        <v>195.119</v>
       </c>
     </row>
     <row r="112">
@@ -8476,13 +8476,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>290.547</v>
+        <v>290.549</v>
       </c>
       <c r="C112" t="n">
-        <v>226.461</v>
+        <v>226.238</v>
       </c>
       <c r="D112" t="n">
-        <v>200.89</v>
+        <v>195.447</v>
       </c>
     </row>
     <row r="113">
@@ -8490,13 +8490,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>292.658</v>
+        <v>292.424</v>
       </c>
       <c r="C113" t="n">
-        <v>228.154</v>
+        <v>227.837</v>
       </c>
       <c r="D113" t="n">
-        <v>202.044</v>
+        <v>198.724</v>
       </c>
     </row>
     <row r="114">
@@ -8504,13 +8504,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>294.845</v>
+        <v>294.462</v>
       </c>
       <c r="C114" t="n">
-        <v>229.743</v>
+        <v>229.46</v>
       </c>
       <c r="D114" t="n">
-        <v>203.466</v>
+        <v>199.223</v>
       </c>
     </row>
     <row r="115">
@@ -8518,13 +8518,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>296.759</v>
+        <v>296.553</v>
       </c>
       <c r="C115" t="n">
-        <v>231.603</v>
+        <v>231.328</v>
       </c>
       <c r="D115" t="n">
-        <v>204.846</v>
+        <v>200.103</v>
       </c>
     </row>
     <row r="116">
@@ -8532,13 +8532,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>298.631</v>
+        <v>298.538</v>
       </c>
       <c r="C116" t="n">
-        <v>233.083</v>
+        <v>233.123</v>
       </c>
       <c r="D116" t="n">
-        <v>205.95</v>
+        <v>201.641</v>
       </c>
     </row>
     <row r="117">
@@ -8546,13 +8546,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>300.523</v>
+        <v>300.573</v>
       </c>
       <c r="C117" t="n">
-        <v>235.024</v>
+        <v>234.941</v>
       </c>
       <c r="D117" t="n">
-        <v>207.454</v>
+        <v>204.333</v>
       </c>
     </row>
     <row r="118">
@@ -8560,13 +8560,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>302.629</v>
+        <v>302.544</v>
       </c>
       <c r="C118" t="n">
-        <v>236.958</v>
+        <v>236.819</v>
       </c>
       <c r="D118" t="n">
-        <v>208.688</v>
+        <v>204.333</v>
       </c>
     </row>
     <row r="119">
@@ -8574,13 +8574,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>304.484</v>
+        <v>304.587</v>
       </c>
       <c r="C119" t="n">
-        <v>238.81</v>
+        <v>238.813</v>
       </c>
       <c r="D119" t="n">
-        <v>209.883</v>
+        <v>206.258</v>
       </c>
     </row>
   </sheetData>
